--- a/Code/Results/OK_configs.xlsx
+++ b/Code/Results/OK_configs.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
+  <si>
+    <t>0_1</t>
+  </si>
   <si>
     <t>0_2</t>
   </si>
@@ -22,13 +25,19 @@
     <t>0_5</t>
   </si>
   <si>
+    <t>0_6</t>
+  </si>
+  <si>
     <t>0_7</t>
   </si>
   <si>
+    <t>0_8</t>
+  </si>
+  <si>
     <t>0_11</t>
   </si>
   <si>
-    <t>0_14</t>
+    <t>0_13</t>
   </si>
   <si>
     <t>0_17</t>
@@ -40,45 +49,78 @@
     <t>0_19</t>
   </si>
   <si>
+    <t>0_20</t>
+  </si>
+  <si>
     <t>0_21</t>
   </si>
   <si>
-    <t>0_23</t>
-  </si>
-  <si>
-    <t>0_24</t>
-  </si>
-  <si>
-    <t>0_34</t>
-  </si>
-  <si>
-    <t>0_35</t>
+    <t>0_25</t>
+  </si>
+  <si>
+    <t>0_27</t>
+  </si>
+  <si>
+    <t>0_29</t>
+  </si>
+  <si>
+    <t>0_30</t>
+  </si>
+  <si>
+    <t>0_31</t>
+  </si>
+  <si>
+    <t>0_32</t>
   </si>
   <si>
     <t>0_36</t>
   </si>
   <si>
-    <t>0_41</t>
+    <t>0_37</t>
+  </si>
+  <si>
+    <t>0_39</t>
+  </si>
+  <si>
+    <t>0_44</t>
   </si>
   <si>
     <t>0_45</t>
   </si>
   <si>
+    <t>0_46</t>
+  </si>
+  <si>
     <t>0_49</t>
   </si>
   <si>
     <t>0_51</t>
   </si>
   <si>
+    <t>0_53</t>
+  </si>
+  <si>
+    <t>0_54</t>
+  </si>
+  <si>
     <t>0_58</t>
   </si>
   <si>
+    <t>0_60</t>
+  </si>
+  <si>
     <t>0_62</t>
   </si>
   <si>
     <t>0_64</t>
   </si>
   <si>
+    <t>0_65</t>
+  </si>
+  <si>
+    <t>0_67</t>
+  </si>
+  <si>
     <t>0_69</t>
   </si>
   <si>
@@ -100,13 +142,10 @@
     <t>0_77</t>
   </si>
   <si>
-    <t>0_80</t>
-  </si>
-  <si>
     <t>0_81</t>
   </si>
   <si>
-    <t>0_84</t>
+    <t>0_85</t>
   </si>
   <si>
     <t>0_87</t>
@@ -115,28 +154,37 @@
     <t>0_89</t>
   </si>
   <si>
+    <t>0_90</t>
+  </si>
+  <si>
     <t>0_92</t>
   </si>
   <si>
+    <t>0_100</t>
+  </si>
+  <si>
+    <t>0_101</t>
+  </si>
+  <si>
     <t>0_104</t>
   </si>
   <si>
-    <t>0_106</t>
-  </si>
-  <si>
     <t>0_107</t>
   </si>
   <si>
+    <t>0_109</t>
+  </si>
+  <si>
     <t>0_112</t>
   </si>
   <si>
-    <t>0_115</t>
+    <t>0_113</t>
   </si>
   <si>
     <t>0_117</t>
   </si>
   <si>
-    <t>0_118</t>
+    <t>0_119</t>
   </si>
   <si>
     <t>0_121</t>
@@ -145,72 +193,111 @@
     <t>0_123</t>
   </si>
   <si>
+    <t>0_126</t>
+  </si>
+  <si>
+    <t>0_127</t>
+  </si>
+  <si>
+    <t>0_128</t>
+  </si>
+  <si>
+    <t>0_133</t>
+  </si>
+  <si>
     <t>0_134</t>
   </si>
   <si>
     <t>0_136</t>
   </si>
   <si>
+    <t>0_141</t>
+  </si>
+  <si>
     <t>0_148</t>
   </si>
   <si>
     <t>0_152</t>
   </si>
   <si>
+    <t>0_154</t>
+  </si>
+  <si>
+    <t>0_155</t>
+  </si>
+  <si>
     <t>0_157</t>
   </si>
   <si>
     <t>0_158</t>
   </si>
   <si>
-    <t>0_159</t>
-  </si>
-  <si>
-    <t>0_165</t>
-  </si>
-  <si>
-    <t>0_167</t>
+    <t>0_162</t>
+  </si>
+  <si>
+    <t>0_163</t>
+  </si>
+  <si>
+    <t>0_166</t>
+  </si>
+  <si>
+    <t>0_168</t>
   </si>
   <si>
     <t>0_169</t>
   </si>
   <si>
-    <t>0_171</t>
+    <t>0_174</t>
   </si>
   <si>
     <t>0_175</t>
   </si>
   <si>
+    <t>0_176</t>
+  </si>
+  <si>
     <t>0_179</t>
   </si>
   <si>
     <t>0_180</t>
   </si>
   <si>
+    <t>0_187</t>
+  </si>
+  <si>
     <t>0_189</t>
   </si>
   <si>
-    <t>0_192</t>
+    <t>0_190</t>
   </si>
   <si>
     <t>0_193</t>
   </si>
   <si>
-    <t>0_194</t>
-  </si>
-  <si>
-    <t>0_197</t>
+    <t>0_196</t>
+  </si>
+  <si>
+    <t>0_198</t>
   </si>
   <si>
     <t>0_199</t>
   </si>
   <si>
+    <t>0_200</t>
+  </si>
+  <si>
     <t>0_202</t>
   </si>
   <si>
     <t>0_209</t>
   </si>
   <si>
+    <t>0_210</t>
+  </si>
+  <si>
+    <t>0_211</t>
+  </si>
+  <si>
     <t>0_213</t>
   </si>
   <si>
@@ -220,12 +307,21 @@
     <t>0_215</t>
   </si>
   <si>
+    <t>0_216</t>
+  </si>
+  <si>
     <t>0_218</t>
   </si>
   <si>
+    <t>0_221</t>
+  </si>
+  <si>
     <t>0_222</t>
   </si>
   <si>
+    <t>0_223</t>
+  </si>
+  <si>
     <t>0_224</t>
   </si>
   <si>
@@ -235,31 +331,46 @@
     <t>0_226</t>
   </si>
   <si>
+    <t>0_228</t>
+  </si>
+  <si>
     <t>0_229</t>
   </si>
   <si>
     <t>0_232</t>
   </si>
   <si>
+    <t>0_234</t>
+  </si>
+  <si>
     <t>0_235</t>
   </si>
   <si>
     <t>0_237</t>
   </si>
   <si>
+    <t>0_239</t>
+  </si>
+  <si>
+    <t>0_242</t>
+  </si>
+  <si>
+    <t>0_243</t>
+  </si>
+  <si>
+    <t>0_245</t>
+  </si>
+  <si>
+    <t>0_247</t>
+  </si>
+  <si>
     <t>0_248</t>
   </si>
   <si>
     <t>0_249</t>
   </si>
   <si>
-    <t>0_250</t>
-  </si>
-  <si>
-    <t>0_254</t>
-  </si>
-  <si>
-    <t>0_255</t>
+    <t>0_252</t>
   </si>
   <si>
     <t>1_1</t>
@@ -268,12 +379,15 @@
     <t>1_2</t>
   </si>
   <si>
-    <t>1_3</t>
+    <t>1_4</t>
   </si>
   <si>
     <t>1_5</t>
   </si>
   <si>
+    <t>1_6</t>
+  </si>
+  <si>
     <t>1_7</t>
   </si>
   <si>
@@ -283,9 +397,18 @@
     <t>1_9</t>
   </si>
   <si>
+    <t>1_10</t>
+  </si>
+  <si>
     <t>1_11</t>
   </si>
   <si>
+    <t>1_12</t>
+  </si>
+  <si>
+    <t>1_13</t>
+  </si>
+  <si>
     <t>1_14</t>
   </si>
   <si>
@@ -310,25 +433,22 @@
     <t>1_21</t>
   </si>
   <si>
-    <t>1_23</t>
-  </si>
-  <si>
-    <t>1_24</t>
-  </si>
-  <si>
     <t>1_25</t>
   </si>
   <si>
-    <t>1_28</t>
+    <t>1_27</t>
   </si>
   <si>
     <t>1_29</t>
   </si>
   <si>
+    <t>1_30</t>
+  </si>
+  <si>
     <t>1_31</t>
   </si>
   <si>
-    <t>1_34</t>
+    <t>1_32</t>
   </si>
   <si>
     <t>1_35</t>
@@ -340,10 +460,19 @@
     <t>1_37</t>
   </si>
   <si>
+    <t>1_38</t>
+  </si>
+  <si>
     <t>1_39</t>
   </si>
   <si>
-    <t>1_41</t>
+    <t>1_40</t>
+  </si>
+  <si>
+    <t>1_42</t>
+  </si>
+  <si>
+    <t>1_43</t>
   </si>
   <si>
     <t>1_44</t>
@@ -355,39 +484,48 @@
     <t>1_46</t>
   </si>
   <si>
+    <t>1_48</t>
+  </si>
+  <si>
     <t>1_49</t>
   </si>
   <si>
     <t>1_51</t>
   </si>
   <si>
-    <t>1_52</t>
-  </si>
-  <si>
     <t>1_53</t>
   </si>
   <si>
     <t>1_54</t>
   </si>
   <si>
-    <t>1_55</t>
-  </si>
-  <si>
     <t>1_56</t>
   </si>
   <si>
     <t>1_58</t>
   </si>
   <si>
-    <t>1_59</t>
+    <t>1_60</t>
+  </si>
+  <si>
+    <t>1_61</t>
   </si>
   <si>
     <t>1_62</t>
   </si>
   <si>
+    <t>1_63</t>
+  </si>
+  <si>
     <t>1_64</t>
   </si>
   <si>
+    <t>1_65</t>
+  </si>
+  <si>
+    <t>1_66</t>
+  </si>
+  <si>
     <t>1_67</t>
   </si>
   <si>
@@ -400,6 +538,9 @@
     <t>1_71</t>
   </si>
   <si>
+    <t>1_72</t>
+  </si>
+  <si>
     <t>1_73</t>
   </si>
   <si>
@@ -415,37 +556,79 @@
     <t>1_77</t>
   </si>
   <si>
+    <t>1_78</t>
+  </si>
+  <si>
+    <t>1_79</t>
+  </si>
+  <si>
     <t>1_80</t>
   </si>
   <si>
     <t>1_81</t>
   </si>
   <si>
+    <t>1_82</t>
+  </si>
+  <si>
+    <t>1_83</t>
+  </si>
+  <si>
     <t>1_84</t>
   </si>
   <si>
+    <t>1_85</t>
+  </si>
+  <si>
+    <t>1_86</t>
+  </si>
+  <si>
     <t>1_87</t>
   </si>
   <si>
+    <t>1_88</t>
+  </si>
+  <si>
     <t>1_89</t>
   </si>
   <si>
+    <t>1_90</t>
+  </si>
+  <si>
     <t>1_91</t>
   </si>
   <si>
     <t>1_92</t>
   </si>
   <si>
+    <t>1_93</t>
+  </si>
+  <si>
     <t>1_94</t>
   </si>
   <si>
+    <t>1_96</t>
+  </si>
+  <si>
     <t>1_97</t>
   </si>
   <si>
+    <t>1_98</t>
+  </si>
+  <si>
+    <t>1_100</t>
+  </si>
+  <si>
+    <t>1_101</t>
+  </si>
+  <si>
+    <t>1_102</t>
+  </si>
+  <si>
     <t>1_104</t>
   </si>
   <si>
-    <t>1_106</t>
+    <t>1_105</t>
   </si>
   <si>
     <t>1_107</t>
@@ -454,6 +637,12 @@
     <t>1_108</t>
   </si>
   <si>
+    <t>1_109</t>
+  </si>
+  <si>
+    <t>1_111</t>
+  </si>
+  <si>
     <t>1_112</t>
   </si>
   <si>
@@ -484,6 +673,21 @@
     <t>1_123</t>
   </si>
   <si>
+    <t>1_124</t>
+  </si>
+  <si>
+    <t>1_125</t>
+  </si>
+  <si>
+    <t>1_126</t>
+  </si>
+  <si>
+    <t>1_127</t>
+  </si>
+  <si>
+    <t>1_128</t>
+  </si>
+  <si>
     <t>1_131</t>
   </si>
   <si>
@@ -493,12 +697,24 @@
     <t>1_134</t>
   </si>
   <si>
+    <t>1_135</t>
+  </si>
+  <si>
     <t>1_136</t>
   </si>
   <si>
+    <t>1_137</t>
+  </si>
+  <si>
+    <t>1_138</t>
+  </si>
+  <si>
     <t>1_139</t>
   </si>
   <si>
+    <t>1_140</t>
+  </si>
+  <si>
     <t>1_141</t>
   </si>
   <si>
@@ -511,7 +727,7 @@
     <t>1_148</t>
   </si>
   <si>
-    <t>1_151</t>
+    <t>1_150</t>
   </si>
   <si>
     <t>1_152</t>
@@ -523,22 +739,28 @@
     <t>1_154</t>
   </si>
   <si>
+    <t>1_155</t>
+  </si>
+  <si>
     <t>1_157</t>
   </si>
   <si>
     <t>1_158</t>
   </si>
   <si>
-    <t>1_159</t>
+    <t>1_160</t>
+  </si>
+  <si>
+    <t>1_161</t>
+  </si>
+  <si>
+    <t>1_162</t>
   </si>
   <si>
     <t>1_163</t>
   </si>
   <si>
-    <t>1_165</t>
-  </si>
-  <si>
-    <t>1_167</t>
+    <t>1_166</t>
   </si>
   <si>
     <t>1_168</t>
@@ -547,7 +769,13 @@
     <t>1_169</t>
   </si>
   <si>
-    <t>1_171</t>
+    <t>1_170</t>
+  </si>
+  <si>
+    <t>1_172</t>
+  </si>
+  <si>
+    <t>1_174</t>
   </si>
   <si>
     <t>1_175</t>
@@ -556,6 +784,9 @@
     <t>1_176</t>
   </si>
   <si>
+    <t>1_177</t>
+  </si>
+  <si>
     <t>1_178</t>
   </si>
   <si>
@@ -568,10 +799,10 @@
     <t>1_181</t>
   </si>
   <si>
-    <t>1_184</t>
-  </si>
-  <si>
-    <t>1_185</t>
+    <t>1_182</t>
+  </si>
+  <si>
+    <t>1_186</t>
   </si>
   <si>
     <t>1_187</t>
@@ -583,7 +814,7 @@
     <t>1_189</t>
   </si>
   <si>
-    <t>1_192</t>
+    <t>1_190</t>
   </si>
   <si>
     <t>1_193</t>
@@ -601,6 +832,9 @@
     <t>1_197</t>
   </si>
   <si>
+    <t>1_198</t>
+  </si>
+  <si>
     <t>1_199</t>
   </si>
   <si>
@@ -610,10 +844,10 @@
     <t>1_202</t>
   </si>
   <si>
-    <t>1_203</t>
-  </si>
-  <si>
-    <t>1_205</t>
+    <t>1_206</t>
+  </si>
+  <si>
+    <t>1_207</t>
   </si>
   <si>
     <t>1_209</t>
@@ -637,15 +871,24 @@
     <t>1_216</t>
   </si>
   <si>
+    <t>1_217</t>
+  </si>
+  <si>
     <t>1_218</t>
   </si>
   <si>
     <t>1_219</t>
   </si>
   <si>
+    <t>1_221</t>
+  </si>
+  <si>
     <t>1_222</t>
   </si>
   <si>
+    <t>1_223</t>
+  </si>
+  <si>
     <t>1_224</t>
   </si>
   <si>
@@ -655,6 +898,12 @@
     <t>1_226</t>
   </si>
   <si>
+    <t>1_227</t>
+  </si>
+  <si>
+    <t>1_228</t>
+  </si>
+  <si>
     <t>1_229</t>
   </si>
   <si>
@@ -667,18 +916,45 @@
     <t>1_232</t>
   </si>
   <si>
+    <t>1_233</t>
+  </si>
+  <si>
+    <t>1_234</t>
+  </si>
+  <si>
     <t>1_235</t>
   </si>
   <si>
+    <t>1_236</t>
+  </si>
+  <si>
     <t>1_237</t>
   </si>
   <si>
+    <t>1_238</t>
+  </si>
+  <si>
+    <t>1_239</t>
+  </si>
+  <si>
+    <t>1_242</t>
+  </si>
+  <si>
     <t>1_243</t>
   </si>
   <si>
+    <t>1_244</t>
+  </si>
+  <si>
     <t>1_245</t>
   </si>
   <si>
+    <t>1_246</t>
+  </si>
+  <si>
+    <t>1_247</t>
+  </si>
+  <si>
     <t>1_248</t>
   </si>
   <si>
@@ -691,6 +967,12 @@
     <t>1_251</t>
   </si>
   <si>
+    <t>1_252</t>
+  </si>
+  <si>
+    <t>1_253</t>
+  </si>
+  <si>
     <t>1_254</t>
   </si>
   <si>
@@ -712,6 +994,9 @@
     <t>2_5</t>
   </si>
   <si>
+    <t>2_6</t>
+  </si>
+  <si>
     <t>2_7</t>
   </si>
   <si>
@@ -757,12 +1042,6 @@
     <t>2_22</t>
   </si>
   <si>
-    <t>2_23</t>
-  </si>
-  <si>
-    <t>2_24</t>
-  </si>
-  <si>
     <t>2_25</t>
   </si>
   <si>
@@ -787,9 +1066,6 @@
     <t>2_33</t>
   </si>
   <si>
-    <t>2_34</t>
-  </si>
-  <si>
     <t>2_35</t>
   </si>
   <si>
@@ -799,15 +1075,15 @@
     <t>2_37</t>
   </si>
   <si>
+    <t>2_38</t>
+  </si>
+  <si>
     <t>2_39</t>
   </si>
   <si>
     <t>2_40</t>
   </si>
   <si>
-    <t>2_41</t>
-  </si>
-  <si>
     <t>2_42</t>
   </si>
   <si>
@@ -832,28 +1108,28 @@
     <t>2_49</t>
   </si>
   <si>
+    <t>2_50</t>
+  </si>
+  <si>
     <t>2_51</t>
   </si>
   <si>
-    <t>2_52</t>
-  </si>
-  <si>
     <t>2_53</t>
   </si>
   <si>
     <t>2_54</t>
   </si>
   <si>
-    <t>2_55</t>
-  </si>
-  <si>
     <t>2_56</t>
   </si>
   <si>
+    <t>2_57</t>
+  </si>
+  <si>
     <t>2_58</t>
   </si>
   <si>
-    <t>2_59</t>
+    <t>2_60</t>
   </si>
   <si>
     <t>2_61</t>
@@ -862,6 +1138,9 @@
     <t>2_62</t>
   </si>
   <si>
+    <t>2_63</t>
+  </si>
+  <si>
     <t>2_64</t>
   </si>
   <si>
@@ -886,6 +1165,9 @@
     <t>2_71</t>
   </si>
   <si>
+    <t>2_72</t>
+  </si>
+  <si>
     <t>2_73</t>
   </si>
   <si>
@@ -922,6 +1204,9 @@
     <t>2_85</t>
   </si>
   <si>
+    <t>2_86</t>
+  </si>
+  <si>
     <t>2_87</t>
   </si>
   <si>
@@ -940,9 +1225,15 @@
     <t>2_92</t>
   </si>
   <si>
+    <t>2_93</t>
+  </si>
+  <si>
     <t>2_94</t>
   </si>
   <si>
+    <t>2_95</t>
+  </si>
+  <si>
     <t>2_96</t>
   </si>
   <si>
@@ -958,13 +1249,19 @@
     <t>2_100</t>
   </si>
   <si>
+    <t>2_101</t>
+  </si>
+  <si>
     <t>2_102</t>
   </si>
   <si>
+    <t>2_103</t>
+  </si>
+  <si>
     <t>2_104</t>
   </si>
   <si>
-    <t>2_106</t>
+    <t>2_105</t>
   </si>
   <si>
     <t>2_107</t>
@@ -976,6 +1273,9 @@
     <t>2_109</t>
   </si>
   <si>
+    <t>2_110</t>
+  </si>
+  <si>
     <t>2_111</t>
   </si>
   <si>
@@ -991,6 +1291,9 @@
     <t>2_115</t>
   </si>
   <si>
+    <t>2_116</t>
+  </si>
+  <si>
     <t>2_117</t>
   </si>
   <si>
@@ -1018,6 +1321,15 @@
     <t>2_125</t>
   </si>
   <si>
+    <t>2_126</t>
+  </si>
+  <si>
+    <t>2_128</t>
+  </si>
+  <si>
+    <t>2_129</t>
+  </si>
+  <si>
     <t>2_131</t>
   </si>
   <si>
@@ -1033,6 +1345,9 @@
     <t>2_136</t>
   </si>
   <si>
+    <t>2_137</t>
+  </si>
+  <si>
     <t>2_138</t>
   </si>
   <si>
@@ -1045,15 +1360,27 @@
     <t>2_141</t>
   </si>
   <si>
+    <t>2_142</t>
+  </si>
+  <si>
     <t>2_143</t>
   </si>
   <si>
     <t>2_144</t>
   </si>
   <si>
+    <t>2_145</t>
+  </si>
+  <si>
+    <t>2_147</t>
+  </si>
+  <si>
     <t>2_148</t>
   </si>
   <si>
+    <t>2_149</t>
+  </si>
+  <si>
     <t>2_150</t>
   </si>
   <si>
@@ -1069,15 +1396,15 @@
     <t>2_154</t>
   </si>
   <si>
+    <t>2_156</t>
+  </si>
+  <si>
     <t>2_157</t>
   </si>
   <si>
     <t>2_158</t>
   </si>
   <si>
-    <t>2_159</t>
-  </si>
-  <si>
     <t>2_160</t>
   </si>
   <si>
@@ -1093,15 +1420,9 @@
     <t>2_164</t>
   </si>
   <si>
-    <t>2_165</t>
-  </si>
-  <si>
     <t>2_166</t>
   </si>
   <si>
-    <t>2_167</t>
-  </si>
-  <si>
     <t>2_168</t>
   </si>
   <si>
@@ -1111,12 +1432,12 @@
     <t>2_170</t>
   </si>
   <si>
-    <t>2_171</t>
-  </si>
-  <si>
     <t>2_172</t>
   </si>
   <si>
+    <t>2_173</t>
+  </si>
+  <si>
     <t>2_174</t>
   </si>
   <si>
@@ -1141,10 +1462,10 @@
     <t>2_181</t>
   </si>
   <si>
-    <t>2_184</t>
-  </si>
-  <si>
-    <t>2_185</t>
+    <t>2_182</t>
+  </si>
+  <si>
+    <t>2_183</t>
   </si>
   <si>
     <t>2_186</t>
@@ -1162,7 +1483,7 @@
     <t>2_190</t>
   </si>
   <si>
-    <t>2_192</t>
+    <t>2_191</t>
   </si>
   <si>
     <t>2_193</t>
@@ -1189,15 +1510,15 @@
     <t>2_200</t>
   </si>
   <si>
-    <t>2_201</t>
-  </si>
-  <si>
     <t>2_202</t>
   </si>
   <si>
     <t>2_203</t>
   </si>
   <si>
+    <t>2_204</t>
+  </si>
+  <si>
     <t>2_205</t>
   </si>
   <si>
@@ -1216,6 +1537,9 @@
     <t>2_211</t>
   </si>
   <si>
+    <t>2_212</t>
+  </si>
+  <si>
     <t>2_213</t>
   </si>
   <si>
@@ -1237,6 +1561,9 @@
     <t>2_219</t>
   </si>
   <si>
+    <t>2_220</t>
+  </si>
+  <si>
     <t>2_221</t>
   </si>
   <si>
@@ -1282,12 +1609,21 @@
     <t>2_237</t>
   </si>
   <si>
+    <t>2_238</t>
+  </si>
+  <si>
     <t>2_239</t>
   </si>
   <si>
+    <t>2_240</t>
+  </si>
+  <si>
     <t>2_241</t>
   </si>
   <si>
+    <t>2_242</t>
+  </si>
+  <si>
     <t>2_243</t>
   </si>
   <si>
@@ -1318,6 +1654,9 @@
     <t>2_252</t>
   </si>
   <si>
+    <t>2_253</t>
+  </si>
+  <si>
     <t>2_254</t>
   </si>
   <si>
@@ -1327,7 +1666,7 @@
     <t>3_1</t>
   </si>
   <si>
-    <t>3_3</t>
+    <t>3_2</t>
   </si>
   <si>
     <t>3_5</t>
@@ -1345,7 +1684,10 @@
     <t>3_11</t>
   </si>
   <si>
-    <t>3_14</t>
+    <t>3_12</t>
+  </si>
+  <si>
+    <t>3_13</t>
   </si>
   <si>
     <t>3_15</t>
@@ -1366,33 +1708,21 @@
     <t>3_20</t>
   </si>
   <si>
-    <t>3_22</t>
-  </si>
-  <si>
-    <t>3_23</t>
-  </si>
-  <si>
-    <t>3_24</t>
+    <t>3_21</t>
   </si>
   <si>
     <t>3_27</t>
   </si>
   <si>
-    <t>3_28</t>
-  </si>
-  <si>
     <t>3_29</t>
   </si>
   <si>
+    <t>3_30</t>
+  </si>
+  <si>
     <t>3_31</t>
   </si>
   <si>
-    <t>3_34</t>
-  </si>
-  <si>
-    <t>3_35</t>
-  </si>
-  <si>
     <t>3_37</t>
   </si>
   <si>
@@ -1402,12 +1732,12 @@
     <t>3_40</t>
   </si>
   <si>
-    <t>3_41</t>
-  </si>
-  <si>
     <t>3_42</t>
   </si>
   <si>
+    <t>3_43</t>
+  </si>
+  <si>
     <t>3_45</t>
   </si>
   <si>
@@ -1426,22 +1756,16 @@
     <t>3_51</t>
   </si>
   <si>
-    <t>3_52</t>
-  </si>
-  <si>
     <t>3_53</t>
   </si>
   <si>
     <t>3_54</t>
   </si>
   <si>
-    <t>3_55</t>
-  </si>
-  <si>
     <t>3_56</t>
   </si>
   <si>
-    <t>3_59</t>
+    <t>3_58</t>
   </si>
   <si>
     <t>3_61</t>
@@ -1456,6 +1780,9 @@
     <t>3_65</t>
   </si>
   <si>
+    <t>3_66</t>
+  </si>
+  <si>
     <t>3_67</t>
   </si>
   <si>
@@ -1471,6 +1798,9 @@
     <t>3_71</t>
   </si>
   <si>
+    <t>3_72</t>
+  </si>
+  <si>
     <t>3_73</t>
   </si>
   <si>
@@ -1486,6 +1816,9 @@
     <t>3_77</t>
   </si>
   <si>
+    <t>3_78</t>
+  </si>
+  <si>
     <t>3_79</t>
   </si>
   <si>
@@ -1501,61 +1834,82 @@
     <t>3_83</t>
   </si>
   <si>
-    <t>3_84</t>
-  </si>
-  <si>
     <t>3_85</t>
   </si>
   <si>
+    <t>3_86</t>
+  </si>
+  <si>
+    <t>3_87</t>
+  </si>
+  <si>
     <t>3_88</t>
   </si>
   <si>
+    <t>3_89</t>
+  </si>
+  <si>
     <t>3_90</t>
   </si>
   <si>
     <t>3_91</t>
   </si>
   <si>
+    <t>3_92</t>
+  </si>
+  <si>
     <t>3_94</t>
   </si>
   <si>
+    <t>3_96</t>
+  </si>
+  <si>
     <t>3_97</t>
   </si>
   <si>
     <t>3_98</t>
   </si>
   <si>
-    <t>3_99</t>
-  </si>
-  <si>
     <t>3_100</t>
   </si>
   <si>
+    <t>3_101</t>
+  </si>
+  <si>
+    <t>3_102</t>
+  </si>
+  <si>
+    <t>3_103</t>
+  </si>
+  <si>
     <t>3_104</t>
   </si>
   <si>
-    <t>3_106</t>
+    <t>3_105</t>
   </si>
   <si>
     <t>3_107</t>
   </si>
   <si>
-    <t>3_108</t>
+    <t>3_110</t>
   </si>
   <si>
     <t>3_111</t>
   </si>
   <si>
+    <t>3_113</t>
+  </si>
+  <si>
     <t>3_114</t>
   </si>
   <si>
     <t>3_115</t>
   </si>
   <si>
-    <t>3_118</t>
-  </si>
-  <si>
-    <t>3_120</t>
+    <t>3_116</t>
+  </si>
+  <si>
+    <t>3_117</t>
   </si>
   <si>
     <t>3_121</t>
@@ -1567,9 +1921,18 @@
     <t>3_123</t>
   </si>
   <si>
+    <t>3_124</t>
+  </si>
+  <si>
     <t>3_125</t>
   </si>
   <si>
+    <t>3_126</t>
+  </si>
+  <si>
+    <t>3_127</t>
+  </si>
+  <si>
     <t>3_131</t>
   </si>
   <si>
@@ -1582,6 +1945,12 @@
     <t>3_135</t>
   </si>
   <si>
+    <t>3_136</t>
+  </si>
+  <si>
+    <t>3_137</t>
+  </si>
+  <si>
     <t>3_138</t>
   </si>
   <si>
@@ -1591,12 +1960,21 @@
     <t>3_140</t>
   </si>
   <si>
+    <t>3_141</t>
+  </si>
+  <si>
     <t>3_143</t>
   </si>
   <si>
     <t>3_144</t>
   </si>
   <si>
+    <t>3_145</t>
+  </si>
+  <si>
+    <t>3_146</t>
+  </si>
+  <si>
     <t>3_147</t>
   </si>
   <si>
@@ -1606,9 +1984,6 @@
     <t>3_150</t>
   </si>
   <si>
-    <t>3_151</t>
-  </si>
-  <si>
     <t>3_152</t>
   </si>
   <si>
@@ -1624,9 +1999,6 @@
     <t>3_158</t>
   </si>
   <si>
-    <t>3_159</t>
-  </si>
-  <si>
     <t>3_160</t>
   </si>
   <si>
@@ -1642,10 +2014,7 @@
     <t>3_164</t>
   </si>
   <si>
-    <t>3_165</t>
-  </si>
-  <si>
-    <t>3_167</t>
+    <t>3_166</t>
   </si>
   <si>
     <t>3_169</t>
@@ -1654,15 +2023,18 @@
     <t>3_170</t>
   </si>
   <si>
-    <t>3_171</t>
-  </si>
-  <si>
     <t>3_172</t>
   </si>
   <si>
+    <t>3_174</t>
+  </si>
+  <si>
     <t>3_175</t>
   </si>
   <si>
+    <t>3_176</t>
+  </si>
+  <si>
     <t>3_177</t>
   </si>
   <si>
@@ -1681,12 +2053,6 @@
     <t>3_182</t>
   </si>
   <si>
-    <t>3_184</t>
-  </si>
-  <si>
-    <t>3_185</t>
-  </si>
-  <si>
     <t>3_186</t>
   </si>
   <si>
@@ -1699,27 +2065,27 @@
     <t>3_189</t>
   </si>
   <si>
-    <t>3_192</t>
-  </si>
-  <si>
-    <t>3_194</t>
+    <t>3_191</t>
   </si>
   <si>
     <t>3_195</t>
   </si>
   <si>
-    <t>3_197</t>
+    <t>3_198</t>
   </si>
   <si>
     <t>3_199</t>
   </si>
   <si>
-    <t>3_201</t>
+    <t>3_200</t>
   </si>
   <si>
     <t>3_203</t>
   </si>
   <si>
+    <t>3_204</t>
+  </si>
+  <si>
     <t>3_205</t>
   </si>
   <si>
@@ -1735,6 +2101,9 @@
     <t>3_211</t>
   </si>
   <si>
+    <t>3_212</t>
+  </si>
+  <si>
     <t>3_213</t>
   </si>
   <si>
@@ -1750,9 +2119,15 @@
     <t>3_217</t>
   </si>
   <si>
+    <t>3_218</t>
+  </si>
+  <si>
     <t>3_219</t>
   </si>
   <si>
+    <t>3_220</t>
+  </si>
+  <si>
     <t>3_221</t>
   </si>
   <si>
@@ -1771,6 +2146,9 @@
     <t>3_227</t>
   </si>
   <si>
+    <t>3_229</t>
+  </si>
+  <si>
     <t>3_230</t>
   </si>
   <si>
@@ -1780,15 +2158,36 @@
     <t>3_232</t>
   </si>
   <si>
+    <t>3_233</t>
+  </si>
+  <si>
+    <t>3_234</t>
+  </si>
+  <si>
+    <t>3_235</t>
+  </si>
+  <si>
     <t>3_236</t>
   </si>
   <si>
     <t>3_237</t>
   </si>
   <si>
+    <t>3_238</t>
+  </si>
+  <si>
+    <t>3_239</t>
+  </si>
+  <si>
+    <t>3_240</t>
+  </si>
+  <si>
     <t>3_241</t>
   </si>
   <si>
+    <t>3_242</t>
+  </si>
+  <si>
     <t>3_243</t>
   </si>
   <si>
@@ -1804,6 +2203,9 @@
     <t>3_247</t>
   </si>
   <si>
+    <t>3_248</t>
+  </si>
+  <si>
     <t>3_249</t>
   </si>
   <si>
@@ -1816,6 +2218,9 @@
     <t>3_252</t>
   </si>
   <si>
+    <t>3_253</t>
+  </si>
+  <si>
     <t>3_254</t>
   </si>
   <si>
@@ -1828,16 +2233,13 @@
     <t>4_2</t>
   </si>
   <si>
-    <t>4_3</t>
-  </si>
-  <si>
     <t>4_4</t>
   </si>
   <si>
     <t>4_5</t>
   </si>
   <si>
-    <t>4_7</t>
+    <t>4_6</t>
   </si>
   <si>
     <t>4_8</t>
@@ -1846,24 +2248,15 @@
     <t>4_9</t>
   </si>
   <si>
-    <t>4_10</t>
-  </si>
-  <si>
     <t>4_11</t>
   </si>
   <si>
     <t>4_12</t>
   </si>
   <si>
-    <t>4_14</t>
-  </si>
-  <si>
     <t>4_15</t>
   </si>
   <si>
-    <t>4_16</t>
-  </si>
-  <si>
     <t>4_17</t>
   </si>
   <si>
@@ -1879,43 +2272,43 @@
     <t>4_21</t>
   </si>
   <si>
-    <t>4_22</t>
-  </si>
-  <si>
-    <t>4_23</t>
-  </si>
-  <si>
-    <t>4_24</t>
-  </si>
-  <si>
     <t>4_25</t>
   </si>
   <si>
     <t>4_27</t>
   </si>
   <si>
+    <t>4_29</t>
+  </si>
+  <si>
+    <t>4_30</t>
+  </si>
+  <si>
     <t>4_31</t>
   </si>
   <si>
+    <t>4_32</t>
+  </si>
+  <si>
     <t>4_33</t>
   </si>
   <si>
-    <t>4_34</t>
-  </si>
-  <si>
-    <t>4_35</t>
-  </si>
-  <si>
     <t>4_36</t>
   </si>
   <si>
     <t>4_37</t>
   </si>
   <si>
+    <t>4_38</t>
+  </si>
+  <si>
+    <t>4_39</t>
+  </si>
+  <si>
     <t>4_40</t>
   </si>
   <si>
-    <t>4_41</t>
+    <t>4_42</t>
   </si>
   <si>
     <t>4_43</t>
@@ -1930,28 +2323,40 @@
     <t>4_47</t>
   </si>
   <si>
+    <t>4_48</t>
+  </si>
+  <si>
     <t>4_49</t>
   </si>
   <si>
+    <t>4_50</t>
+  </si>
+  <si>
     <t>4_51</t>
   </si>
   <si>
-    <t>4_52</t>
-  </si>
-  <si>
     <t>4_53</t>
   </si>
   <si>
+    <t>4_54</t>
+  </si>
+  <si>
     <t>4_56</t>
   </si>
   <si>
+    <t>4_57</t>
+  </si>
+  <si>
     <t>4_58</t>
   </si>
   <si>
+    <t>4_60</t>
+  </si>
+  <si>
     <t>4_61</t>
   </si>
   <si>
-    <t>4_62</t>
+    <t>4_63</t>
   </si>
   <si>
     <t>4_64</t>
@@ -1978,7 +2383,7 @@
     <t>4_71</t>
   </si>
   <si>
-    <t>4_73</t>
+    <t>4_72</t>
   </si>
   <si>
     <t>4_74</t>
@@ -1993,7 +2398,7 @@
     <t>4_77</t>
   </si>
   <si>
-    <t>4_80</t>
+    <t>4_79</t>
   </si>
   <si>
     <t>4_81</t>
@@ -2002,12 +2407,12 @@
     <t>4_83</t>
   </si>
   <si>
-    <t>4_84</t>
-  </si>
-  <si>
     <t>4_85</t>
   </si>
   <si>
+    <t>4_86</t>
+  </si>
+  <si>
     <t>4_87</t>
   </si>
   <si>
@@ -2020,12 +2425,12 @@
     <t>4_90</t>
   </si>
   <si>
-    <t>4_91</t>
-  </si>
-  <si>
     <t>4_92</t>
   </si>
   <si>
+    <t>4_93</t>
+  </si>
+  <si>
     <t>4_94</t>
   </si>
   <si>
@@ -2035,9 +2440,6 @@
     <t>4_97</t>
   </si>
   <si>
-    <t>4_98</t>
-  </si>
-  <si>
     <t>4_100</t>
   </si>
   <si>
@@ -2047,15 +2449,12 @@
     <t>4_104</t>
   </si>
   <si>
-    <t>4_106</t>
+    <t>4_105</t>
   </si>
   <si>
     <t>4_107</t>
   </si>
   <si>
-    <t>4_108</t>
-  </si>
-  <si>
     <t>4_109</t>
   </si>
   <si>
@@ -2068,36 +2467,36 @@
     <t>4_113</t>
   </si>
   <si>
-    <t>4_115</t>
-  </si>
-  <si>
     <t>4_117</t>
   </si>
   <si>
     <t>4_119</t>
   </si>
   <si>
-    <t>4_120</t>
-  </si>
-  <si>
-    <t>4_121</t>
-  </si>
-  <si>
     <t>4_122</t>
   </si>
   <si>
-    <t>4_123</t>
+    <t>4_124</t>
   </si>
   <si>
     <t>4_125</t>
   </si>
   <si>
-    <t>4_131</t>
+    <t>4_128</t>
+  </si>
+  <si>
+    <t>4_129</t>
+  </si>
+  <si>
+    <t>4_133</t>
   </si>
   <si>
     <t>4_134</t>
   </si>
   <si>
+    <t>4_135</t>
+  </si>
+  <si>
     <t>4_136</t>
   </si>
   <si>
@@ -2107,9 +2506,18 @@
     <t>4_139</t>
   </si>
   <si>
+    <t>4_140</t>
+  </si>
+  <si>
     <t>4_141</t>
   </si>
   <si>
+    <t>4_142</t>
+  </si>
+  <si>
+    <t>4_147</t>
+  </si>
+  <si>
     <t>4_148</t>
   </si>
   <si>
@@ -2122,39 +2530,36 @@
     <t>4_154</t>
   </si>
   <si>
+    <t>4_156</t>
+  </si>
+  <si>
     <t>4_157</t>
   </si>
   <si>
-    <t>4_159</t>
-  </si>
-  <si>
-    <t>4_160</t>
+    <t>4_158</t>
   </si>
   <si>
     <t>4_161</t>
   </si>
   <si>
+    <t>4_163</t>
+  </si>
+  <si>
     <t>4_164</t>
   </si>
   <si>
-    <t>4_165</t>
-  </si>
-  <si>
     <t>4_166</t>
   </si>
   <si>
-    <t>4_167</t>
-  </si>
-  <si>
     <t>4_168</t>
   </si>
   <si>
+    <t>4_169</t>
+  </si>
+  <si>
     <t>4_170</t>
   </si>
   <si>
-    <t>4_171</t>
-  </si>
-  <si>
     <t>4_172</t>
   </si>
   <si>
@@ -2164,7 +2569,7 @@
     <t>4_175</t>
   </si>
   <si>
-    <t>4_178</t>
+    <t>4_176</t>
   </si>
   <si>
     <t>4_179</t>
@@ -2173,39 +2578,30 @@
     <t>4_180</t>
   </si>
   <si>
-    <t>4_181</t>
+    <t>4_182</t>
+  </si>
+  <si>
+    <t>4_183</t>
+  </si>
+  <si>
+    <t>4_186</t>
   </si>
   <si>
     <t>4_187</t>
   </si>
   <si>
-    <t>4_188</t>
-  </si>
-  <si>
     <t>4_189</t>
   </si>
   <si>
     <t>4_190</t>
   </si>
   <si>
-    <t>4_192</t>
-  </si>
-  <si>
     <t>4_193</t>
   </si>
   <si>
-    <t>4_194</t>
-  </si>
-  <si>
-    <t>4_195</t>
-  </si>
-  <si>
     <t>4_196</t>
   </si>
   <si>
-    <t>4_197</t>
-  </si>
-  <si>
     <t>4_198</t>
   </si>
   <si>
@@ -2218,9 +2614,6 @@
     <t>4_202</t>
   </si>
   <si>
-    <t>4_205</t>
-  </si>
-  <si>
     <t>4_206</t>
   </si>
   <si>
@@ -2263,6 +2656,9 @@
     <t>4_222</t>
   </si>
   <si>
+    <t>4_223</t>
+  </si>
+  <si>
     <t>4_224</t>
   </si>
   <si>
@@ -2272,21 +2668,33 @@
     <t>4_226</t>
   </si>
   <si>
+    <t>4_228</t>
+  </si>
+  <si>
     <t>4_229</t>
   </si>
   <si>
-    <t>4_230</t>
-  </si>
-  <si>
-    <t>4_231</t>
-  </si>
-  <si>
     <t>4_232</t>
   </si>
   <si>
+    <t>4_235</t>
+  </si>
+  <si>
+    <t>4_236</t>
+  </si>
+  <si>
     <t>4_237</t>
   </si>
   <si>
+    <t>4_239</t>
+  </si>
+  <si>
+    <t>4_241</t>
+  </si>
+  <si>
+    <t>4_242</t>
+  </si>
+  <si>
     <t>4_243</t>
   </si>
   <si>
@@ -2305,19 +2713,7 @@
     <t>4_248</t>
   </si>
   <si>
-    <t>4_249</t>
-  </si>
-  <si>
-    <t>4_250</t>
-  </si>
-  <si>
-    <t>4_251</t>
-  </si>
-  <si>
-    <t>4_254</t>
-  </si>
-  <si>
-    <t>4_255</t>
+    <t>4_253</t>
   </si>
   <si>
     <t>5_1</t>
@@ -2326,13 +2722,10 @@
     <t>5_2</t>
   </si>
   <si>
-    <t>5_3</t>
-  </si>
-  <si>
     <t>5_4</t>
   </si>
   <si>
-    <t>5_7</t>
+    <t>5_6</t>
   </si>
   <si>
     <t>5_9</t>
@@ -2341,9 +2734,6 @@
     <t>5_12</t>
   </si>
   <si>
-    <t>5_14</t>
-  </si>
-  <si>
     <t>5_15</t>
   </si>
   <si>
@@ -2353,57 +2743,54 @@
     <t>5_19</t>
   </si>
   <si>
-    <t>5_23</t>
-  </si>
-  <si>
-    <t>5_24</t>
-  </si>
-  <si>
     <t>5_25</t>
   </si>
   <si>
+    <t>5_30</t>
+  </si>
+  <si>
     <t>5_31</t>
   </si>
   <si>
     <t>5_33</t>
   </si>
   <si>
-    <t>5_35</t>
-  </si>
-  <si>
     <t>5_36</t>
   </si>
   <si>
     <t>5_37</t>
   </si>
   <si>
+    <t>5_39</t>
+  </si>
+  <si>
     <t>5_40</t>
   </si>
   <si>
+    <t>5_42</t>
+  </si>
+  <si>
     <t>5_43</t>
   </si>
   <si>
     <t>5_45</t>
   </si>
   <si>
+    <t>5_48</t>
+  </si>
+  <si>
     <t>5_49</t>
   </si>
   <si>
     <t>5_51</t>
   </si>
   <si>
-    <t>5_52</t>
-  </si>
-  <si>
     <t>5_53</t>
   </si>
   <si>
     <t>5_58</t>
   </si>
   <si>
-    <t>5_62</t>
-  </si>
-  <si>
     <t>5_67</t>
   </si>
   <si>
@@ -2431,13 +2818,13 @@
     <t>5_77</t>
   </si>
   <si>
-    <t>5_80</t>
+    <t>5_79</t>
   </si>
   <si>
     <t>5_83</t>
   </si>
   <si>
-    <t>5_84</t>
+    <t>5_85</t>
   </si>
   <si>
     <t>5_87</t>
@@ -2452,66 +2839,84 @@
     <t>5_90</t>
   </si>
   <si>
+    <t>5_93</t>
+  </si>
+  <si>
     <t>5_94</t>
   </si>
   <si>
+    <t>5_96</t>
+  </si>
+  <si>
     <t>5_97</t>
   </si>
   <si>
-    <t>5_98</t>
-  </si>
-  <si>
     <t>5_100</t>
   </si>
   <si>
-    <t>5_106</t>
-  </si>
-  <si>
     <t>5_109</t>
   </si>
   <si>
+    <t>5_111</t>
+  </si>
+  <si>
     <t>5_112</t>
   </si>
   <si>
     <t>5_113</t>
   </si>
   <si>
-    <t>5_115</t>
-  </si>
-  <si>
     <t>5_119</t>
   </si>
   <si>
+    <t>5_124</t>
+  </si>
+  <si>
     <t>5_125</t>
   </si>
   <si>
-    <t>5_131</t>
+    <t>5_133</t>
+  </si>
+  <si>
+    <t>5_135</t>
   </si>
   <si>
     <t>5_136</t>
   </si>
   <si>
+    <t>5_138</t>
+  </si>
+  <si>
+    <t>5_147</t>
+  </si>
+  <si>
     <t>5_148</t>
   </si>
   <si>
+    <t>5_156</t>
+  </si>
+  <si>
     <t>5_157</t>
   </si>
   <si>
-    <t>5_159</t>
+    <t>5_158</t>
+  </si>
+  <si>
+    <t>5_163</t>
   </si>
   <si>
     <t>5_164</t>
   </si>
   <si>
-    <t>5_171</t>
+    <t>5_169</t>
+  </si>
+  <si>
+    <t>5_170</t>
   </si>
   <si>
     <t>5_175</t>
   </si>
   <si>
-    <t>5_178</t>
-  </si>
-  <si>
     <t>5_179</t>
   </si>
   <si>
@@ -2521,6 +2926,15 @@
     <t>5_181</t>
   </si>
   <si>
+    <t>5_182</t>
+  </si>
+  <si>
+    <t>5_183</t>
+  </si>
+  <si>
+    <t>5_186</t>
+  </si>
+  <si>
     <t>5_187</t>
   </si>
   <si>
@@ -2530,15 +2944,21 @@
     <t>5_190</t>
   </si>
   <si>
-    <t>5_192</t>
-  </si>
-  <si>
     <t>5_193</t>
   </si>
   <si>
+    <t>5_196</t>
+  </si>
+  <si>
+    <t>5_198</t>
+  </si>
+  <si>
     <t>5_200</t>
   </si>
   <si>
+    <t>5_207</t>
+  </si>
+  <si>
     <t>5_209</t>
   </si>
   <si>
@@ -2572,9 +2992,18 @@
     <t>5_232</t>
   </si>
   <si>
+    <t>5_235</t>
+  </si>
+  <si>
+    <t>5_236</t>
+  </si>
+  <si>
     <t>5_237</t>
   </si>
   <si>
+    <t>5_241</t>
+  </si>
+  <si>
     <t>5_243</t>
   </si>
   <si>
@@ -2582,15 +3011,6 @@
   </si>
   <si>
     <t>5_247</t>
-  </si>
-  <si>
-    <t>5_249</t>
-  </si>
-  <si>
-    <t>5_250</t>
-  </si>
-  <si>
-    <t>5_251</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +3368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B860"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9831,6 +10251,1126 @@
         <v>858</v>
       </c>
     </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1">
+        <v>871</v>
+      </c>
+      <c r="B873" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1">
+        <v>872</v>
+      </c>
+      <c r="B874" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1">
+        <v>873</v>
+      </c>
+      <c r="B875" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1">
+        <v>874</v>
+      </c>
+      <c r="B876" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1">
+        <v>875</v>
+      </c>
+      <c r="B877" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1">
+        <v>876</v>
+      </c>
+      <c r="B878" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1">
+        <v>877</v>
+      </c>
+      <c r="B879" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1">
+        <v>878</v>
+      </c>
+      <c r="B880" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1">
+        <v>879</v>
+      </c>
+      <c r="B881" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1">
+        <v>880</v>
+      </c>
+      <c r="B882" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1">
+        <v>881</v>
+      </c>
+      <c r="B883" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="1">
+        <v>883</v>
+      </c>
+      <c r="B885" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="1">
+        <v>884</v>
+      </c>
+      <c r="B886" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="1">
+        <v>885</v>
+      </c>
+      <c r="B887" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="1">
+        <v>886</v>
+      </c>
+      <c r="B888" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="1">
+        <v>887</v>
+      </c>
+      <c r="B889" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="1">
+        <v>888</v>
+      </c>
+      <c r="B890" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="1">
+        <v>889</v>
+      </c>
+      <c r="B891" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="1">
+        <v>890</v>
+      </c>
+      <c r="B892" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="1">
+        <v>891</v>
+      </c>
+      <c r="B893" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="1">
+        <v>892</v>
+      </c>
+      <c r="B894" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="1">
+        <v>893</v>
+      </c>
+      <c r="B895" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="1">
+        <v>896</v>
+      </c>
+      <c r="B898" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1">
+        <v>907</v>
+      </c>
+      <c r="B909" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="1">
+        <v>908</v>
+      </c>
+      <c r="B910" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="1">
+        <v>909</v>
+      </c>
+      <c r="B911" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="1">
+        <v>910</v>
+      </c>
+      <c r="B912" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="1">
+        <v>911</v>
+      </c>
+      <c r="B913" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="1">
+        <v>912</v>
+      </c>
+      <c r="B914" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="1">
+        <v>913</v>
+      </c>
+      <c r="B915" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="1">
+        <v>914</v>
+      </c>
+      <c r="B916" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="1">
+        <v>915</v>
+      </c>
+      <c r="B917" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="1">
+        <v>916</v>
+      </c>
+      <c r="B918" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="1">
+        <v>917</v>
+      </c>
+      <c r="B919" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="1">
+        <v>918</v>
+      </c>
+      <c r="B920" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="1">
+        <v>919</v>
+      </c>
+      <c r="B921" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="1">
+        <v>920</v>
+      </c>
+      <c r="B922" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="1">
+        <v>921</v>
+      </c>
+      <c r="B923" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="1">
+        <v>922</v>
+      </c>
+      <c r="B924" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="1">
+        <v>923</v>
+      </c>
+      <c r="B925" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="1">
+        <v>924</v>
+      </c>
+      <c r="B926" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="1">
+        <v>925</v>
+      </c>
+      <c r="B927" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="1">
+        <v>926</v>
+      </c>
+      <c r="B928" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="1">
+        <v>927</v>
+      </c>
+      <c r="B929" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="1">
+        <v>928</v>
+      </c>
+      <c r="B930" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="1">
+        <v>929</v>
+      </c>
+      <c r="B931" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="1">
+        <v>930</v>
+      </c>
+      <c r="B932" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="1">
+        <v>931</v>
+      </c>
+      <c r="B933" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1">
+        <v>932</v>
+      </c>
+      <c r="B934" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="1">
+        <v>933</v>
+      </c>
+      <c r="B935" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="1">
+        <v>934</v>
+      </c>
+      <c r="B936" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="1">
+        <v>935</v>
+      </c>
+      <c r="B937" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="1">
+        <v>936</v>
+      </c>
+      <c r="B938" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1">
+        <v>937</v>
+      </c>
+      <c r="B939" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="1">
+        <v>938</v>
+      </c>
+      <c r="B940" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="1">
+        <v>939</v>
+      </c>
+      <c r="B941" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="1">
+        <v>940</v>
+      </c>
+      <c r="B942" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="1">
+        <v>941</v>
+      </c>
+      <c r="B943" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="1">
+        <v>942</v>
+      </c>
+      <c r="B944" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="1">
+        <v>943</v>
+      </c>
+      <c r="B945" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="1">
+        <v>944</v>
+      </c>
+      <c r="B946" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="1">
+        <v>945</v>
+      </c>
+      <c r="B947" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="1">
+        <v>946</v>
+      </c>
+      <c r="B948" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="1">
+        <v>947</v>
+      </c>
+      <c r="B949" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="1">
+        <v>948</v>
+      </c>
+      <c r="B950" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="1">
+        <v>949</v>
+      </c>
+      <c r="B951" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="1">
+        <v>950</v>
+      </c>
+      <c r="B952" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="1">
+        <v>951</v>
+      </c>
+      <c r="B953" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="1">
+        <v>952</v>
+      </c>
+      <c r="B954" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="1">
+        <v>953</v>
+      </c>
+      <c r="B955" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="1">
+        <v>954</v>
+      </c>
+      <c r="B956" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="1">
+        <v>955</v>
+      </c>
+      <c r="B957" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="1">
+        <v>956</v>
+      </c>
+      <c r="B958" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="1">
+        <v>957</v>
+      </c>
+      <c r="B959" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="1">
+        <v>958</v>
+      </c>
+      <c r="B960" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="1">
+        <v>959</v>
+      </c>
+      <c r="B961" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="1">
+        <v>960</v>
+      </c>
+      <c r="B962" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="1">
+        <v>961</v>
+      </c>
+      <c r="B963" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="1">
+        <v>962</v>
+      </c>
+      <c r="B964" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="1">
+        <v>963</v>
+      </c>
+      <c r="B965" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="1">
+        <v>964</v>
+      </c>
+      <c r="B966" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="1">
+        <v>965</v>
+      </c>
+      <c r="B967" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="1">
+        <v>966</v>
+      </c>
+      <c r="B968" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="1">
+        <v>967</v>
+      </c>
+      <c r="B969" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="1">
+        <v>968</v>
+      </c>
+      <c r="B970" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="1">
+        <v>969</v>
+      </c>
+      <c r="B971" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="1">
+        <v>970</v>
+      </c>
+      <c r="B972" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="1">
+        <v>971</v>
+      </c>
+      <c r="B973" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="1">
+        <v>972</v>
+      </c>
+      <c r="B974" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="1">
+        <v>982</v>
+      </c>
+      <c r="B984" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="1">
+        <v>983</v>
+      </c>
+      <c r="B985" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="1">
+        <v>984</v>
+      </c>
+      <c r="B986" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="1">
+        <v>985</v>
+      </c>
+      <c r="B987" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="1">
+        <v>986</v>
+      </c>
+      <c r="B988" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="1">
+        <v>987</v>
+      </c>
+      <c r="B989" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="1">
+        <v>988</v>
+      </c>
+      <c r="B990" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="1">
+        <v>989</v>
+      </c>
+      <c r="B991" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="1">
+        <v>990</v>
+      </c>
+      <c r="B992" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="1">
+        <v>991</v>
+      </c>
+      <c r="B993" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="1">
+        <v>992</v>
+      </c>
+      <c r="B994" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="1">
+        <v>993</v>
+      </c>
+      <c r="B995" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="1">
+        <v>994</v>
+      </c>
+      <c r="B996" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="1">
+        <v>995</v>
+      </c>
+      <c r="B997" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="1">
+        <v>996</v>
+      </c>
+      <c r="B998" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/Results/OK_configs.xlsx
+++ b/Code/Results/OK_configs.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
-  <si>
-    <t>0_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="859">
   <si>
     <t>0_2</t>
   </si>
@@ -25,19 +22,13 @@
     <t>0_5</t>
   </si>
   <si>
-    <t>0_6</t>
-  </si>
-  <si>
     <t>0_7</t>
   </si>
   <si>
-    <t>0_8</t>
-  </si>
-  <si>
     <t>0_11</t>
   </si>
   <si>
-    <t>0_13</t>
+    <t>0_14</t>
   </si>
   <si>
     <t>0_17</t>
@@ -49,78 +40,45 @@
     <t>0_19</t>
   </si>
   <si>
-    <t>0_20</t>
-  </si>
-  <si>
     <t>0_21</t>
   </si>
   <si>
-    <t>0_25</t>
-  </si>
-  <si>
-    <t>0_27</t>
-  </si>
-  <si>
-    <t>0_29</t>
-  </si>
-  <si>
-    <t>0_30</t>
-  </si>
-  <si>
-    <t>0_31</t>
-  </si>
-  <si>
-    <t>0_32</t>
+    <t>0_23</t>
+  </si>
+  <si>
+    <t>0_24</t>
+  </si>
+  <si>
+    <t>0_34</t>
+  </si>
+  <si>
+    <t>0_35</t>
   </si>
   <si>
     <t>0_36</t>
   </si>
   <si>
-    <t>0_37</t>
-  </si>
-  <si>
-    <t>0_39</t>
-  </si>
-  <si>
-    <t>0_44</t>
+    <t>0_41</t>
   </si>
   <si>
     <t>0_45</t>
   </si>
   <si>
-    <t>0_46</t>
-  </si>
-  <si>
     <t>0_49</t>
   </si>
   <si>
     <t>0_51</t>
   </si>
   <si>
-    <t>0_53</t>
-  </si>
-  <si>
-    <t>0_54</t>
-  </si>
-  <si>
     <t>0_58</t>
   </si>
   <si>
-    <t>0_60</t>
-  </si>
-  <si>
     <t>0_62</t>
   </si>
   <si>
     <t>0_64</t>
   </si>
   <si>
-    <t>0_65</t>
-  </si>
-  <si>
-    <t>0_67</t>
-  </si>
-  <si>
     <t>0_69</t>
   </si>
   <si>
@@ -142,10 +100,13 @@
     <t>0_77</t>
   </si>
   <si>
+    <t>0_80</t>
+  </si>
+  <si>
     <t>0_81</t>
   </si>
   <si>
-    <t>0_85</t>
+    <t>0_84</t>
   </si>
   <si>
     <t>0_87</t>
@@ -154,37 +115,28 @@
     <t>0_89</t>
   </si>
   <si>
-    <t>0_90</t>
-  </si>
-  <si>
     <t>0_92</t>
   </si>
   <si>
-    <t>0_100</t>
-  </si>
-  <si>
-    <t>0_101</t>
-  </si>
-  <si>
     <t>0_104</t>
   </si>
   <si>
+    <t>0_106</t>
+  </si>
+  <si>
     <t>0_107</t>
   </si>
   <si>
-    <t>0_109</t>
-  </si>
-  <si>
     <t>0_112</t>
   </si>
   <si>
-    <t>0_113</t>
+    <t>0_115</t>
   </si>
   <si>
     <t>0_117</t>
   </si>
   <si>
-    <t>0_119</t>
+    <t>0_118</t>
   </si>
   <si>
     <t>0_121</t>
@@ -193,111 +145,72 @@
     <t>0_123</t>
   </si>
   <si>
-    <t>0_126</t>
-  </si>
-  <si>
-    <t>0_127</t>
-  </si>
-  <si>
-    <t>0_128</t>
-  </si>
-  <si>
-    <t>0_133</t>
-  </si>
-  <si>
     <t>0_134</t>
   </si>
   <si>
     <t>0_136</t>
   </si>
   <si>
-    <t>0_141</t>
-  </si>
-  <si>
     <t>0_148</t>
   </si>
   <si>
     <t>0_152</t>
   </si>
   <si>
-    <t>0_154</t>
-  </si>
-  <si>
-    <t>0_155</t>
-  </si>
-  <si>
     <t>0_157</t>
   </si>
   <si>
     <t>0_158</t>
   </si>
   <si>
-    <t>0_162</t>
-  </si>
-  <si>
-    <t>0_163</t>
-  </si>
-  <si>
-    <t>0_166</t>
-  </si>
-  <si>
-    <t>0_168</t>
+    <t>0_159</t>
+  </si>
+  <si>
+    <t>0_165</t>
+  </si>
+  <si>
+    <t>0_167</t>
   </si>
   <si>
     <t>0_169</t>
   </si>
   <si>
-    <t>0_174</t>
+    <t>0_171</t>
   </si>
   <si>
     <t>0_175</t>
   </si>
   <si>
-    <t>0_176</t>
-  </si>
-  <si>
     <t>0_179</t>
   </si>
   <si>
     <t>0_180</t>
   </si>
   <si>
-    <t>0_187</t>
-  </si>
-  <si>
     <t>0_189</t>
   </si>
   <si>
-    <t>0_190</t>
+    <t>0_192</t>
   </si>
   <si>
     <t>0_193</t>
   </si>
   <si>
-    <t>0_196</t>
-  </si>
-  <si>
-    <t>0_198</t>
+    <t>0_194</t>
+  </si>
+  <si>
+    <t>0_197</t>
   </si>
   <si>
     <t>0_199</t>
   </si>
   <si>
-    <t>0_200</t>
-  </si>
-  <si>
     <t>0_202</t>
   </si>
   <si>
     <t>0_209</t>
   </si>
   <si>
-    <t>0_210</t>
-  </si>
-  <si>
-    <t>0_211</t>
-  </si>
-  <si>
     <t>0_213</t>
   </si>
   <si>
@@ -307,21 +220,12 @@
     <t>0_215</t>
   </si>
   <si>
-    <t>0_216</t>
-  </si>
-  <si>
     <t>0_218</t>
   </si>
   <si>
-    <t>0_221</t>
-  </si>
-  <si>
     <t>0_222</t>
   </si>
   <si>
-    <t>0_223</t>
-  </si>
-  <si>
     <t>0_224</t>
   </si>
   <si>
@@ -331,46 +235,31 @@
     <t>0_226</t>
   </si>
   <si>
-    <t>0_228</t>
-  </si>
-  <si>
     <t>0_229</t>
   </si>
   <si>
     <t>0_232</t>
   </si>
   <si>
-    <t>0_234</t>
-  </si>
-  <si>
     <t>0_235</t>
   </si>
   <si>
     <t>0_237</t>
   </si>
   <si>
-    <t>0_239</t>
-  </si>
-  <si>
-    <t>0_242</t>
-  </si>
-  <si>
-    <t>0_243</t>
-  </si>
-  <si>
-    <t>0_245</t>
-  </si>
-  <si>
-    <t>0_247</t>
-  </si>
-  <si>
     <t>0_248</t>
   </si>
   <si>
     <t>0_249</t>
   </si>
   <si>
-    <t>0_252</t>
+    <t>0_250</t>
+  </si>
+  <si>
+    <t>0_254</t>
+  </si>
+  <si>
+    <t>0_255</t>
   </si>
   <si>
     <t>1_1</t>
@@ -379,15 +268,12 @@
     <t>1_2</t>
   </si>
   <si>
-    <t>1_4</t>
+    <t>1_3</t>
   </si>
   <si>
     <t>1_5</t>
   </si>
   <si>
-    <t>1_6</t>
-  </si>
-  <si>
     <t>1_7</t>
   </si>
   <si>
@@ -397,18 +283,9 @@
     <t>1_9</t>
   </si>
   <si>
-    <t>1_10</t>
-  </si>
-  <si>
     <t>1_11</t>
   </si>
   <si>
-    <t>1_12</t>
-  </si>
-  <si>
-    <t>1_13</t>
-  </si>
-  <si>
     <t>1_14</t>
   </si>
   <si>
@@ -433,22 +310,25 @@
     <t>1_21</t>
   </si>
   <si>
+    <t>1_23</t>
+  </si>
+  <si>
+    <t>1_24</t>
+  </si>
+  <si>
     <t>1_25</t>
   </si>
   <si>
-    <t>1_27</t>
+    <t>1_28</t>
   </si>
   <si>
     <t>1_29</t>
   </si>
   <si>
-    <t>1_30</t>
-  </si>
-  <si>
     <t>1_31</t>
   </si>
   <si>
-    <t>1_32</t>
+    <t>1_34</t>
   </si>
   <si>
     <t>1_35</t>
@@ -460,19 +340,10 @@
     <t>1_37</t>
   </si>
   <si>
-    <t>1_38</t>
-  </si>
-  <si>
     <t>1_39</t>
   </si>
   <si>
-    <t>1_40</t>
-  </si>
-  <si>
-    <t>1_42</t>
-  </si>
-  <si>
-    <t>1_43</t>
+    <t>1_41</t>
   </si>
   <si>
     <t>1_44</t>
@@ -484,48 +355,39 @@
     <t>1_46</t>
   </si>
   <si>
-    <t>1_48</t>
-  </si>
-  <si>
     <t>1_49</t>
   </si>
   <si>
     <t>1_51</t>
   </si>
   <si>
+    <t>1_52</t>
+  </si>
+  <si>
     <t>1_53</t>
   </si>
   <si>
     <t>1_54</t>
   </si>
   <si>
+    <t>1_55</t>
+  </si>
+  <si>
     <t>1_56</t>
   </si>
   <si>
     <t>1_58</t>
   </si>
   <si>
-    <t>1_60</t>
-  </si>
-  <si>
-    <t>1_61</t>
+    <t>1_59</t>
   </si>
   <si>
     <t>1_62</t>
   </si>
   <si>
-    <t>1_63</t>
-  </si>
-  <si>
     <t>1_64</t>
   </si>
   <si>
-    <t>1_65</t>
-  </si>
-  <si>
-    <t>1_66</t>
-  </si>
-  <si>
     <t>1_67</t>
   </si>
   <si>
@@ -538,9 +400,6 @@
     <t>1_71</t>
   </si>
   <si>
-    <t>1_72</t>
-  </si>
-  <si>
     <t>1_73</t>
   </si>
   <si>
@@ -556,79 +415,37 @@
     <t>1_77</t>
   </si>
   <si>
-    <t>1_78</t>
-  </si>
-  <si>
-    <t>1_79</t>
-  </si>
-  <si>
     <t>1_80</t>
   </si>
   <si>
     <t>1_81</t>
   </si>
   <si>
-    <t>1_82</t>
-  </si>
-  <si>
-    <t>1_83</t>
-  </si>
-  <si>
     <t>1_84</t>
   </si>
   <si>
-    <t>1_85</t>
-  </si>
-  <si>
-    <t>1_86</t>
-  </si>
-  <si>
     <t>1_87</t>
   </si>
   <si>
-    <t>1_88</t>
-  </si>
-  <si>
     <t>1_89</t>
   </si>
   <si>
-    <t>1_90</t>
-  </si>
-  <si>
     <t>1_91</t>
   </si>
   <si>
     <t>1_92</t>
   </si>
   <si>
-    <t>1_93</t>
-  </si>
-  <si>
     <t>1_94</t>
   </si>
   <si>
-    <t>1_96</t>
-  </si>
-  <si>
     <t>1_97</t>
   </si>
   <si>
-    <t>1_98</t>
-  </si>
-  <si>
-    <t>1_100</t>
-  </si>
-  <si>
-    <t>1_101</t>
-  </si>
-  <si>
-    <t>1_102</t>
-  </si>
-  <si>
     <t>1_104</t>
   </si>
   <si>
-    <t>1_105</t>
+    <t>1_106</t>
   </si>
   <si>
     <t>1_107</t>
@@ -637,12 +454,6 @@
     <t>1_108</t>
   </si>
   <si>
-    <t>1_109</t>
-  </si>
-  <si>
-    <t>1_111</t>
-  </si>
-  <si>
     <t>1_112</t>
   </si>
   <si>
@@ -673,21 +484,6 @@
     <t>1_123</t>
   </si>
   <si>
-    <t>1_124</t>
-  </si>
-  <si>
-    <t>1_125</t>
-  </si>
-  <si>
-    <t>1_126</t>
-  </si>
-  <si>
-    <t>1_127</t>
-  </si>
-  <si>
-    <t>1_128</t>
-  </si>
-  <si>
     <t>1_131</t>
   </si>
   <si>
@@ -697,24 +493,12 @@
     <t>1_134</t>
   </si>
   <si>
-    <t>1_135</t>
-  </si>
-  <si>
     <t>1_136</t>
   </si>
   <si>
-    <t>1_137</t>
-  </si>
-  <si>
-    <t>1_138</t>
-  </si>
-  <si>
     <t>1_139</t>
   </si>
   <si>
-    <t>1_140</t>
-  </si>
-  <si>
     <t>1_141</t>
   </si>
   <si>
@@ -727,7 +511,7 @@
     <t>1_148</t>
   </si>
   <si>
-    <t>1_150</t>
+    <t>1_151</t>
   </si>
   <si>
     <t>1_152</t>
@@ -739,28 +523,22 @@
     <t>1_154</t>
   </si>
   <si>
-    <t>1_155</t>
-  </si>
-  <si>
     <t>1_157</t>
   </si>
   <si>
     <t>1_158</t>
   </si>
   <si>
-    <t>1_160</t>
-  </si>
-  <si>
-    <t>1_161</t>
-  </si>
-  <si>
-    <t>1_162</t>
+    <t>1_159</t>
   </si>
   <si>
     <t>1_163</t>
   </si>
   <si>
-    <t>1_166</t>
+    <t>1_165</t>
+  </si>
+  <si>
+    <t>1_167</t>
   </si>
   <si>
     <t>1_168</t>
@@ -769,13 +547,7 @@
     <t>1_169</t>
   </si>
   <si>
-    <t>1_170</t>
-  </si>
-  <si>
-    <t>1_172</t>
-  </si>
-  <si>
-    <t>1_174</t>
+    <t>1_171</t>
   </si>
   <si>
     <t>1_175</t>
@@ -784,9 +556,6 @@
     <t>1_176</t>
   </si>
   <si>
-    <t>1_177</t>
-  </si>
-  <si>
     <t>1_178</t>
   </si>
   <si>
@@ -799,10 +568,10 @@
     <t>1_181</t>
   </si>
   <si>
-    <t>1_182</t>
-  </si>
-  <si>
-    <t>1_186</t>
+    <t>1_184</t>
+  </si>
+  <si>
+    <t>1_185</t>
   </si>
   <si>
     <t>1_187</t>
@@ -814,7 +583,7 @@
     <t>1_189</t>
   </si>
   <si>
-    <t>1_190</t>
+    <t>1_192</t>
   </si>
   <si>
     <t>1_193</t>
@@ -832,9 +601,6 @@
     <t>1_197</t>
   </si>
   <si>
-    <t>1_198</t>
-  </si>
-  <si>
     <t>1_199</t>
   </si>
   <si>
@@ -844,10 +610,10 @@
     <t>1_202</t>
   </si>
   <si>
-    <t>1_206</t>
-  </si>
-  <si>
-    <t>1_207</t>
+    <t>1_203</t>
+  </si>
+  <si>
+    <t>1_205</t>
   </si>
   <si>
     <t>1_209</t>
@@ -871,24 +637,15 @@
     <t>1_216</t>
   </si>
   <si>
-    <t>1_217</t>
-  </si>
-  <si>
     <t>1_218</t>
   </si>
   <si>
     <t>1_219</t>
   </si>
   <si>
-    <t>1_221</t>
-  </si>
-  <si>
     <t>1_222</t>
   </si>
   <si>
-    <t>1_223</t>
-  </si>
-  <si>
     <t>1_224</t>
   </si>
   <si>
@@ -898,12 +655,6 @@
     <t>1_226</t>
   </si>
   <si>
-    <t>1_227</t>
-  </si>
-  <si>
-    <t>1_228</t>
-  </si>
-  <si>
     <t>1_229</t>
   </si>
   <si>
@@ -916,45 +667,18 @@
     <t>1_232</t>
   </si>
   <si>
-    <t>1_233</t>
-  </si>
-  <si>
-    <t>1_234</t>
-  </si>
-  <si>
     <t>1_235</t>
   </si>
   <si>
-    <t>1_236</t>
-  </si>
-  <si>
     <t>1_237</t>
   </si>
   <si>
-    <t>1_238</t>
-  </si>
-  <si>
-    <t>1_239</t>
-  </si>
-  <si>
-    <t>1_242</t>
-  </si>
-  <si>
     <t>1_243</t>
   </si>
   <si>
-    <t>1_244</t>
-  </si>
-  <si>
     <t>1_245</t>
   </si>
   <si>
-    <t>1_246</t>
-  </si>
-  <si>
-    <t>1_247</t>
-  </si>
-  <si>
     <t>1_248</t>
   </si>
   <si>
@@ -967,12 +691,6 @@
     <t>1_251</t>
   </si>
   <si>
-    <t>1_252</t>
-  </si>
-  <si>
-    <t>1_253</t>
-  </si>
-  <si>
     <t>1_254</t>
   </si>
   <si>
@@ -994,9 +712,6 @@
     <t>2_5</t>
   </si>
   <si>
-    <t>2_6</t>
-  </si>
-  <si>
     <t>2_7</t>
   </si>
   <si>
@@ -1042,6 +757,12 @@
     <t>2_22</t>
   </si>
   <si>
+    <t>2_23</t>
+  </si>
+  <si>
+    <t>2_24</t>
+  </si>
+  <si>
     <t>2_25</t>
   </si>
   <si>
@@ -1066,6 +787,9 @@
     <t>2_33</t>
   </si>
   <si>
+    <t>2_34</t>
+  </si>
+  <si>
     <t>2_35</t>
   </si>
   <si>
@@ -1075,15 +799,15 @@
     <t>2_37</t>
   </si>
   <si>
-    <t>2_38</t>
-  </si>
-  <si>
     <t>2_39</t>
   </si>
   <si>
     <t>2_40</t>
   </si>
   <si>
+    <t>2_41</t>
+  </si>
+  <si>
     <t>2_42</t>
   </si>
   <si>
@@ -1108,28 +832,28 @@
     <t>2_49</t>
   </si>
   <si>
-    <t>2_50</t>
-  </si>
-  <si>
     <t>2_51</t>
   </si>
   <si>
+    <t>2_52</t>
+  </si>
+  <si>
     <t>2_53</t>
   </si>
   <si>
     <t>2_54</t>
   </si>
   <si>
+    <t>2_55</t>
+  </si>
+  <si>
     <t>2_56</t>
   </si>
   <si>
-    <t>2_57</t>
-  </si>
-  <si>
     <t>2_58</t>
   </si>
   <si>
-    <t>2_60</t>
+    <t>2_59</t>
   </si>
   <si>
     <t>2_61</t>
@@ -1138,9 +862,6 @@
     <t>2_62</t>
   </si>
   <si>
-    <t>2_63</t>
-  </si>
-  <si>
     <t>2_64</t>
   </si>
   <si>
@@ -1165,9 +886,6 @@
     <t>2_71</t>
   </si>
   <si>
-    <t>2_72</t>
-  </si>
-  <si>
     <t>2_73</t>
   </si>
   <si>
@@ -1204,9 +922,6 @@
     <t>2_85</t>
   </si>
   <si>
-    <t>2_86</t>
-  </si>
-  <si>
     <t>2_87</t>
   </si>
   <si>
@@ -1225,15 +940,9 @@
     <t>2_92</t>
   </si>
   <si>
-    <t>2_93</t>
-  </si>
-  <si>
     <t>2_94</t>
   </si>
   <si>
-    <t>2_95</t>
-  </si>
-  <si>
     <t>2_96</t>
   </si>
   <si>
@@ -1249,19 +958,13 @@
     <t>2_100</t>
   </si>
   <si>
-    <t>2_101</t>
-  </si>
-  <si>
     <t>2_102</t>
   </si>
   <si>
-    <t>2_103</t>
-  </si>
-  <si>
     <t>2_104</t>
   </si>
   <si>
-    <t>2_105</t>
+    <t>2_106</t>
   </si>
   <si>
     <t>2_107</t>
@@ -1273,9 +976,6 @@
     <t>2_109</t>
   </si>
   <si>
-    <t>2_110</t>
-  </si>
-  <si>
     <t>2_111</t>
   </si>
   <si>
@@ -1291,9 +991,6 @@
     <t>2_115</t>
   </si>
   <si>
-    <t>2_116</t>
-  </si>
-  <si>
     <t>2_117</t>
   </si>
   <si>
@@ -1321,15 +1018,6 @@
     <t>2_125</t>
   </si>
   <si>
-    <t>2_126</t>
-  </si>
-  <si>
-    <t>2_128</t>
-  </si>
-  <si>
-    <t>2_129</t>
-  </si>
-  <si>
     <t>2_131</t>
   </si>
   <si>
@@ -1345,9 +1033,6 @@
     <t>2_136</t>
   </si>
   <si>
-    <t>2_137</t>
-  </si>
-  <si>
     <t>2_138</t>
   </si>
   <si>
@@ -1360,27 +1045,15 @@
     <t>2_141</t>
   </si>
   <si>
-    <t>2_142</t>
-  </si>
-  <si>
     <t>2_143</t>
   </si>
   <si>
     <t>2_144</t>
   </si>
   <si>
-    <t>2_145</t>
-  </si>
-  <si>
-    <t>2_147</t>
-  </si>
-  <si>
     <t>2_148</t>
   </si>
   <si>
-    <t>2_149</t>
-  </si>
-  <si>
     <t>2_150</t>
   </si>
   <si>
@@ -1396,15 +1069,15 @@
     <t>2_154</t>
   </si>
   <si>
-    <t>2_156</t>
-  </si>
-  <si>
     <t>2_157</t>
   </si>
   <si>
     <t>2_158</t>
   </si>
   <si>
+    <t>2_159</t>
+  </si>
+  <si>
     <t>2_160</t>
   </si>
   <si>
@@ -1420,9 +1093,15 @@
     <t>2_164</t>
   </si>
   <si>
+    <t>2_165</t>
+  </si>
+  <si>
     <t>2_166</t>
   </si>
   <si>
+    <t>2_167</t>
+  </si>
+  <si>
     <t>2_168</t>
   </si>
   <si>
@@ -1432,12 +1111,12 @@
     <t>2_170</t>
   </si>
   <si>
+    <t>2_171</t>
+  </si>
+  <si>
     <t>2_172</t>
   </si>
   <si>
-    <t>2_173</t>
-  </si>
-  <si>
     <t>2_174</t>
   </si>
   <si>
@@ -1462,10 +1141,10 @@
     <t>2_181</t>
   </si>
   <si>
-    <t>2_182</t>
-  </si>
-  <si>
-    <t>2_183</t>
+    <t>2_184</t>
+  </si>
+  <si>
+    <t>2_185</t>
   </si>
   <si>
     <t>2_186</t>
@@ -1483,7 +1162,7 @@
     <t>2_190</t>
   </si>
   <si>
-    <t>2_191</t>
+    <t>2_192</t>
   </si>
   <si>
     <t>2_193</t>
@@ -1510,15 +1189,15 @@
     <t>2_200</t>
   </si>
   <si>
+    <t>2_201</t>
+  </si>
+  <si>
     <t>2_202</t>
   </si>
   <si>
     <t>2_203</t>
   </si>
   <si>
-    <t>2_204</t>
-  </si>
-  <si>
     <t>2_205</t>
   </si>
   <si>
@@ -1537,9 +1216,6 @@
     <t>2_211</t>
   </si>
   <si>
-    <t>2_212</t>
-  </si>
-  <si>
     <t>2_213</t>
   </si>
   <si>
@@ -1561,9 +1237,6 @@
     <t>2_219</t>
   </si>
   <si>
-    <t>2_220</t>
-  </si>
-  <si>
     <t>2_221</t>
   </si>
   <si>
@@ -1609,21 +1282,12 @@
     <t>2_237</t>
   </si>
   <si>
-    <t>2_238</t>
-  </si>
-  <si>
     <t>2_239</t>
   </si>
   <si>
-    <t>2_240</t>
-  </si>
-  <si>
     <t>2_241</t>
   </si>
   <si>
-    <t>2_242</t>
-  </si>
-  <si>
     <t>2_243</t>
   </si>
   <si>
@@ -1654,9 +1318,6 @@
     <t>2_252</t>
   </si>
   <si>
-    <t>2_253</t>
-  </si>
-  <si>
     <t>2_254</t>
   </si>
   <si>
@@ -1666,7 +1327,7 @@
     <t>3_1</t>
   </si>
   <si>
-    <t>3_2</t>
+    <t>3_3</t>
   </si>
   <si>
     <t>3_5</t>
@@ -1684,10 +1345,7 @@
     <t>3_11</t>
   </si>
   <si>
-    <t>3_12</t>
-  </si>
-  <si>
-    <t>3_13</t>
+    <t>3_14</t>
   </si>
   <si>
     <t>3_15</t>
@@ -1708,21 +1366,33 @@
     <t>3_20</t>
   </si>
   <si>
-    <t>3_21</t>
+    <t>3_22</t>
+  </si>
+  <si>
+    <t>3_23</t>
+  </si>
+  <si>
+    <t>3_24</t>
   </si>
   <si>
     <t>3_27</t>
   </si>
   <si>
+    <t>3_28</t>
+  </si>
+  <si>
     <t>3_29</t>
   </si>
   <si>
-    <t>3_30</t>
-  </si>
-  <si>
     <t>3_31</t>
   </si>
   <si>
+    <t>3_34</t>
+  </si>
+  <si>
+    <t>3_35</t>
+  </si>
+  <si>
     <t>3_37</t>
   </si>
   <si>
@@ -1732,12 +1402,12 @@
     <t>3_40</t>
   </si>
   <si>
+    <t>3_41</t>
+  </si>
+  <si>
     <t>3_42</t>
   </si>
   <si>
-    <t>3_43</t>
-  </si>
-  <si>
     <t>3_45</t>
   </si>
   <si>
@@ -1756,16 +1426,22 @@
     <t>3_51</t>
   </si>
   <si>
+    <t>3_52</t>
+  </si>
+  <si>
     <t>3_53</t>
   </si>
   <si>
     <t>3_54</t>
   </si>
   <si>
+    <t>3_55</t>
+  </si>
+  <si>
     <t>3_56</t>
   </si>
   <si>
-    <t>3_58</t>
+    <t>3_59</t>
   </si>
   <si>
     <t>3_61</t>
@@ -1780,9 +1456,6 @@
     <t>3_65</t>
   </si>
   <si>
-    <t>3_66</t>
-  </si>
-  <si>
     <t>3_67</t>
   </si>
   <si>
@@ -1798,9 +1471,6 @@
     <t>3_71</t>
   </si>
   <si>
-    <t>3_72</t>
-  </si>
-  <si>
     <t>3_73</t>
   </si>
   <si>
@@ -1816,9 +1486,6 @@
     <t>3_77</t>
   </si>
   <si>
-    <t>3_78</t>
-  </si>
-  <si>
     <t>3_79</t>
   </si>
   <si>
@@ -1834,82 +1501,61 @@
     <t>3_83</t>
   </si>
   <si>
+    <t>3_84</t>
+  </si>
+  <si>
     <t>3_85</t>
   </si>
   <si>
-    <t>3_86</t>
-  </si>
-  <si>
-    <t>3_87</t>
-  </si>
-  <si>
     <t>3_88</t>
   </si>
   <si>
-    <t>3_89</t>
-  </si>
-  <si>
     <t>3_90</t>
   </si>
   <si>
     <t>3_91</t>
   </si>
   <si>
-    <t>3_92</t>
-  </si>
-  <si>
     <t>3_94</t>
   </si>
   <si>
-    <t>3_96</t>
-  </si>
-  <si>
     <t>3_97</t>
   </si>
   <si>
     <t>3_98</t>
   </si>
   <si>
+    <t>3_99</t>
+  </si>
+  <si>
     <t>3_100</t>
   </si>
   <si>
-    <t>3_101</t>
-  </si>
-  <si>
-    <t>3_102</t>
-  </si>
-  <si>
-    <t>3_103</t>
-  </si>
-  <si>
     <t>3_104</t>
   </si>
   <si>
-    <t>3_105</t>
+    <t>3_106</t>
   </si>
   <si>
     <t>3_107</t>
   </si>
   <si>
-    <t>3_110</t>
+    <t>3_108</t>
   </si>
   <si>
     <t>3_111</t>
   </si>
   <si>
-    <t>3_113</t>
-  </si>
-  <si>
     <t>3_114</t>
   </si>
   <si>
     <t>3_115</t>
   </si>
   <si>
-    <t>3_116</t>
-  </si>
-  <si>
-    <t>3_117</t>
+    <t>3_118</t>
+  </si>
+  <si>
+    <t>3_120</t>
   </si>
   <si>
     <t>3_121</t>
@@ -1921,18 +1567,9 @@
     <t>3_123</t>
   </si>
   <si>
-    <t>3_124</t>
-  </si>
-  <si>
     <t>3_125</t>
   </si>
   <si>
-    <t>3_126</t>
-  </si>
-  <si>
-    <t>3_127</t>
-  </si>
-  <si>
     <t>3_131</t>
   </si>
   <si>
@@ -1945,12 +1582,6 @@
     <t>3_135</t>
   </si>
   <si>
-    <t>3_136</t>
-  </si>
-  <si>
-    <t>3_137</t>
-  </si>
-  <si>
     <t>3_138</t>
   </si>
   <si>
@@ -1960,21 +1591,12 @@
     <t>3_140</t>
   </si>
   <si>
-    <t>3_141</t>
-  </si>
-  <si>
     <t>3_143</t>
   </si>
   <si>
     <t>3_144</t>
   </si>
   <si>
-    <t>3_145</t>
-  </si>
-  <si>
-    <t>3_146</t>
-  </si>
-  <si>
     <t>3_147</t>
   </si>
   <si>
@@ -1984,6 +1606,9 @@
     <t>3_150</t>
   </si>
   <si>
+    <t>3_151</t>
+  </si>
+  <si>
     <t>3_152</t>
   </si>
   <si>
@@ -1999,6 +1624,9 @@
     <t>3_158</t>
   </si>
   <si>
+    <t>3_159</t>
+  </si>
+  <si>
     <t>3_160</t>
   </si>
   <si>
@@ -2014,7 +1642,10 @@
     <t>3_164</t>
   </si>
   <si>
-    <t>3_166</t>
+    <t>3_165</t>
+  </si>
+  <si>
+    <t>3_167</t>
   </si>
   <si>
     <t>3_169</t>
@@ -2023,18 +1654,15 @@
     <t>3_170</t>
   </si>
   <si>
+    <t>3_171</t>
+  </si>
+  <si>
     <t>3_172</t>
   </si>
   <si>
-    <t>3_174</t>
-  </si>
-  <si>
     <t>3_175</t>
   </si>
   <si>
-    <t>3_176</t>
-  </si>
-  <si>
     <t>3_177</t>
   </si>
   <si>
@@ -2053,6 +1681,12 @@
     <t>3_182</t>
   </si>
   <si>
+    <t>3_184</t>
+  </si>
+  <si>
+    <t>3_185</t>
+  </si>
+  <si>
     <t>3_186</t>
   </si>
   <si>
@@ -2065,27 +1699,27 @@
     <t>3_189</t>
   </si>
   <si>
-    <t>3_191</t>
+    <t>3_192</t>
+  </si>
+  <si>
+    <t>3_194</t>
   </si>
   <si>
     <t>3_195</t>
   </si>
   <si>
-    <t>3_198</t>
+    <t>3_197</t>
   </si>
   <si>
     <t>3_199</t>
   </si>
   <si>
-    <t>3_200</t>
+    <t>3_201</t>
   </si>
   <si>
     <t>3_203</t>
   </si>
   <si>
-    <t>3_204</t>
-  </si>
-  <si>
     <t>3_205</t>
   </si>
   <si>
@@ -2101,9 +1735,6 @@
     <t>3_211</t>
   </si>
   <si>
-    <t>3_212</t>
-  </si>
-  <si>
     <t>3_213</t>
   </si>
   <si>
@@ -2119,15 +1750,9 @@
     <t>3_217</t>
   </si>
   <si>
-    <t>3_218</t>
-  </si>
-  <si>
     <t>3_219</t>
   </si>
   <si>
-    <t>3_220</t>
-  </si>
-  <si>
     <t>3_221</t>
   </si>
   <si>
@@ -2146,9 +1771,6 @@
     <t>3_227</t>
   </si>
   <si>
-    <t>3_229</t>
-  </si>
-  <si>
     <t>3_230</t>
   </si>
   <si>
@@ -2158,36 +1780,15 @@
     <t>3_232</t>
   </si>
   <si>
-    <t>3_233</t>
-  </si>
-  <si>
-    <t>3_234</t>
-  </si>
-  <si>
-    <t>3_235</t>
-  </si>
-  <si>
     <t>3_236</t>
   </si>
   <si>
     <t>3_237</t>
   </si>
   <si>
-    <t>3_238</t>
-  </si>
-  <si>
-    <t>3_239</t>
-  </si>
-  <si>
-    <t>3_240</t>
-  </si>
-  <si>
     <t>3_241</t>
   </si>
   <si>
-    <t>3_242</t>
-  </si>
-  <si>
     <t>3_243</t>
   </si>
   <si>
@@ -2203,9 +1804,6 @@
     <t>3_247</t>
   </si>
   <si>
-    <t>3_248</t>
-  </si>
-  <si>
     <t>3_249</t>
   </si>
   <si>
@@ -2218,9 +1816,6 @@
     <t>3_252</t>
   </si>
   <si>
-    <t>3_253</t>
-  </si>
-  <si>
     <t>3_254</t>
   </si>
   <si>
@@ -2233,13 +1828,16 @@
     <t>4_2</t>
   </si>
   <si>
+    <t>4_3</t>
+  </si>
+  <si>
     <t>4_4</t>
   </si>
   <si>
     <t>4_5</t>
   </si>
   <si>
-    <t>4_6</t>
+    <t>4_7</t>
   </si>
   <si>
     <t>4_8</t>
@@ -2248,15 +1846,24 @@
     <t>4_9</t>
   </si>
   <si>
+    <t>4_10</t>
+  </si>
+  <si>
     <t>4_11</t>
   </si>
   <si>
     <t>4_12</t>
   </si>
   <si>
+    <t>4_14</t>
+  </si>
+  <si>
     <t>4_15</t>
   </si>
   <si>
+    <t>4_16</t>
+  </si>
+  <si>
     <t>4_17</t>
   </si>
   <si>
@@ -2272,43 +1879,43 @@
     <t>4_21</t>
   </si>
   <si>
+    <t>4_22</t>
+  </si>
+  <si>
+    <t>4_23</t>
+  </si>
+  <si>
+    <t>4_24</t>
+  </si>
+  <si>
     <t>4_25</t>
   </si>
   <si>
     <t>4_27</t>
   </si>
   <si>
-    <t>4_29</t>
-  </si>
-  <si>
-    <t>4_30</t>
-  </si>
-  <si>
     <t>4_31</t>
   </si>
   <si>
-    <t>4_32</t>
-  </si>
-  <si>
     <t>4_33</t>
   </si>
   <si>
+    <t>4_34</t>
+  </si>
+  <si>
+    <t>4_35</t>
+  </si>
+  <si>
     <t>4_36</t>
   </si>
   <si>
     <t>4_37</t>
   </si>
   <si>
-    <t>4_38</t>
-  </si>
-  <si>
-    <t>4_39</t>
-  </si>
-  <si>
     <t>4_40</t>
   </si>
   <si>
-    <t>4_42</t>
+    <t>4_41</t>
   </si>
   <si>
     <t>4_43</t>
@@ -2323,40 +1930,28 @@
     <t>4_47</t>
   </si>
   <si>
-    <t>4_48</t>
-  </si>
-  <si>
     <t>4_49</t>
   </si>
   <si>
-    <t>4_50</t>
-  </si>
-  <si>
     <t>4_51</t>
   </si>
   <si>
+    <t>4_52</t>
+  </si>
+  <si>
     <t>4_53</t>
   </si>
   <si>
-    <t>4_54</t>
-  </si>
-  <si>
     <t>4_56</t>
   </si>
   <si>
-    <t>4_57</t>
-  </si>
-  <si>
     <t>4_58</t>
   </si>
   <si>
-    <t>4_60</t>
-  </si>
-  <si>
     <t>4_61</t>
   </si>
   <si>
-    <t>4_63</t>
+    <t>4_62</t>
   </si>
   <si>
     <t>4_64</t>
@@ -2383,7 +1978,7 @@
     <t>4_71</t>
   </si>
   <si>
-    <t>4_72</t>
+    <t>4_73</t>
   </si>
   <si>
     <t>4_74</t>
@@ -2398,7 +1993,7 @@
     <t>4_77</t>
   </si>
   <si>
-    <t>4_79</t>
+    <t>4_80</t>
   </si>
   <si>
     <t>4_81</t>
@@ -2407,12 +2002,12 @@
     <t>4_83</t>
   </si>
   <si>
+    <t>4_84</t>
+  </si>
+  <si>
     <t>4_85</t>
   </si>
   <si>
-    <t>4_86</t>
-  </si>
-  <si>
     <t>4_87</t>
   </si>
   <si>
@@ -2425,12 +2020,12 @@
     <t>4_90</t>
   </si>
   <si>
+    <t>4_91</t>
+  </si>
+  <si>
     <t>4_92</t>
   </si>
   <si>
-    <t>4_93</t>
-  </si>
-  <si>
     <t>4_94</t>
   </si>
   <si>
@@ -2440,6 +2035,9 @@
     <t>4_97</t>
   </si>
   <si>
+    <t>4_98</t>
+  </si>
+  <si>
     <t>4_100</t>
   </si>
   <si>
@@ -2449,12 +2047,15 @@
     <t>4_104</t>
   </si>
   <si>
-    <t>4_105</t>
+    <t>4_106</t>
   </si>
   <si>
     <t>4_107</t>
   </si>
   <si>
+    <t>4_108</t>
+  </si>
+  <si>
     <t>4_109</t>
   </si>
   <si>
@@ -2467,36 +2068,36 @@
     <t>4_113</t>
   </si>
   <si>
+    <t>4_115</t>
+  </si>
+  <si>
     <t>4_117</t>
   </si>
   <si>
     <t>4_119</t>
   </si>
   <si>
+    <t>4_120</t>
+  </si>
+  <si>
+    <t>4_121</t>
+  </si>
+  <si>
     <t>4_122</t>
   </si>
   <si>
-    <t>4_124</t>
+    <t>4_123</t>
   </si>
   <si>
     <t>4_125</t>
   </si>
   <si>
-    <t>4_128</t>
-  </si>
-  <si>
-    <t>4_129</t>
-  </si>
-  <si>
-    <t>4_133</t>
+    <t>4_131</t>
   </si>
   <si>
     <t>4_134</t>
   </si>
   <si>
-    <t>4_135</t>
-  </si>
-  <si>
     <t>4_136</t>
   </si>
   <si>
@@ -2506,18 +2107,9 @@
     <t>4_139</t>
   </si>
   <si>
-    <t>4_140</t>
-  </si>
-  <si>
     <t>4_141</t>
   </si>
   <si>
-    <t>4_142</t>
-  </si>
-  <si>
-    <t>4_147</t>
-  </si>
-  <si>
     <t>4_148</t>
   </si>
   <si>
@@ -2530,36 +2122,39 @@
     <t>4_154</t>
   </si>
   <si>
-    <t>4_156</t>
-  </si>
-  <si>
     <t>4_157</t>
   </si>
   <si>
-    <t>4_158</t>
+    <t>4_159</t>
+  </si>
+  <si>
+    <t>4_160</t>
   </si>
   <si>
     <t>4_161</t>
   </si>
   <si>
-    <t>4_163</t>
-  </si>
-  <si>
     <t>4_164</t>
   </si>
   <si>
+    <t>4_165</t>
+  </si>
+  <si>
     <t>4_166</t>
   </si>
   <si>
+    <t>4_167</t>
+  </si>
+  <si>
     <t>4_168</t>
   </si>
   <si>
-    <t>4_169</t>
-  </si>
-  <si>
     <t>4_170</t>
   </si>
   <si>
+    <t>4_171</t>
+  </si>
+  <si>
     <t>4_172</t>
   </si>
   <si>
@@ -2569,7 +2164,7 @@
     <t>4_175</t>
   </si>
   <si>
-    <t>4_176</t>
+    <t>4_178</t>
   </si>
   <si>
     <t>4_179</t>
@@ -2578,30 +2173,39 @@
     <t>4_180</t>
   </si>
   <si>
-    <t>4_182</t>
-  </si>
-  <si>
-    <t>4_183</t>
-  </si>
-  <si>
-    <t>4_186</t>
+    <t>4_181</t>
   </si>
   <si>
     <t>4_187</t>
   </si>
   <si>
+    <t>4_188</t>
+  </si>
+  <si>
     <t>4_189</t>
   </si>
   <si>
     <t>4_190</t>
   </si>
   <si>
+    <t>4_192</t>
+  </si>
+  <si>
     <t>4_193</t>
   </si>
   <si>
+    <t>4_194</t>
+  </si>
+  <si>
+    <t>4_195</t>
+  </si>
+  <si>
     <t>4_196</t>
   </si>
   <si>
+    <t>4_197</t>
+  </si>
+  <si>
     <t>4_198</t>
   </si>
   <si>
@@ -2614,6 +2218,9 @@
     <t>4_202</t>
   </si>
   <si>
+    <t>4_205</t>
+  </si>
+  <si>
     <t>4_206</t>
   </si>
   <si>
@@ -2656,9 +2263,6 @@
     <t>4_222</t>
   </si>
   <si>
-    <t>4_223</t>
-  </si>
-  <si>
     <t>4_224</t>
   </si>
   <si>
@@ -2668,33 +2272,21 @@
     <t>4_226</t>
   </si>
   <si>
-    <t>4_228</t>
-  </si>
-  <si>
     <t>4_229</t>
   </si>
   <si>
+    <t>4_230</t>
+  </si>
+  <si>
+    <t>4_231</t>
+  </si>
+  <si>
     <t>4_232</t>
   </si>
   <si>
-    <t>4_235</t>
-  </si>
-  <si>
-    <t>4_236</t>
-  </si>
-  <si>
     <t>4_237</t>
   </si>
   <si>
-    <t>4_239</t>
-  </si>
-  <si>
-    <t>4_241</t>
-  </si>
-  <si>
-    <t>4_242</t>
-  </si>
-  <si>
     <t>4_243</t>
   </si>
   <si>
@@ -2713,7 +2305,19 @@
     <t>4_248</t>
   </si>
   <si>
-    <t>4_253</t>
+    <t>4_249</t>
+  </si>
+  <si>
+    <t>4_250</t>
+  </si>
+  <si>
+    <t>4_251</t>
+  </si>
+  <si>
+    <t>4_254</t>
+  </si>
+  <si>
+    <t>4_255</t>
   </si>
   <si>
     <t>5_1</t>
@@ -2722,10 +2326,13 @@
     <t>5_2</t>
   </si>
   <si>
+    <t>5_3</t>
+  </si>
+  <si>
     <t>5_4</t>
   </si>
   <si>
-    <t>5_6</t>
+    <t>5_7</t>
   </si>
   <si>
     <t>5_9</t>
@@ -2734,6 +2341,9 @@
     <t>5_12</t>
   </si>
   <si>
+    <t>5_14</t>
+  </si>
+  <si>
     <t>5_15</t>
   </si>
   <si>
@@ -2743,54 +2353,57 @@
     <t>5_19</t>
   </si>
   <si>
+    <t>5_23</t>
+  </si>
+  <si>
+    <t>5_24</t>
+  </si>
+  <si>
     <t>5_25</t>
   </si>
   <si>
-    <t>5_30</t>
-  </si>
-  <si>
     <t>5_31</t>
   </si>
   <si>
     <t>5_33</t>
   </si>
   <si>
+    <t>5_35</t>
+  </si>
+  <si>
     <t>5_36</t>
   </si>
   <si>
     <t>5_37</t>
   </si>
   <si>
-    <t>5_39</t>
-  </si>
-  <si>
     <t>5_40</t>
   </si>
   <si>
-    <t>5_42</t>
-  </si>
-  <si>
     <t>5_43</t>
   </si>
   <si>
     <t>5_45</t>
   </si>
   <si>
-    <t>5_48</t>
-  </si>
-  <si>
     <t>5_49</t>
   </si>
   <si>
     <t>5_51</t>
   </si>
   <si>
+    <t>5_52</t>
+  </si>
+  <si>
     <t>5_53</t>
   </si>
   <si>
     <t>5_58</t>
   </si>
   <si>
+    <t>5_62</t>
+  </si>
+  <si>
     <t>5_67</t>
   </si>
   <si>
@@ -2818,13 +2431,13 @@
     <t>5_77</t>
   </si>
   <si>
-    <t>5_79</t>
+    <t>5_80</t>
   </si>
   <si>
     <t>5_83</t>
   </si>
   <si>
-    <t>5_85</t>
+    <t>5_84</t>
   </si>
   <si>
     <t>5_87</t>
@@ -2839,84 +2452,66 @@
     <t>5_90</t>
   </si>
   <si>
-    <t>5_93</t>
-  </si>
-  <si>
     <t>5_94</t>
   </si>
   <si>
-    <t>5_96</t>
-  </si>
-  <si>
     <t>5_97</t>
   </si>
   <si>
+    <t>5_98</t>
+  </si>
+  <si>
     <t>5_100</t>
   </si>
   <si>
+    <t>5_106</t>
+  </si>
+  <si>
     <t>5_109</t>
   </si>
   <si>
-    <t>5_111</t>
-  </si>
-  <si>
     <t>5_112</t>
   </si>
   <si>
     <t>5_113</t>
   </si>
   <si>
+    <t>5_115</t>
+  </si>
+  <si>
     <t>5_119</t>
   </si>
   <si>
-    <t>5_124</t>
-  </si>
-  <si>
     <t>5_125</t>
   </si>
   <si>
-    <t>5_133</t>
-  </si>
-  <si>
-    <t>5_135</t>
+    <t>5_131</t>
   </si>
   <si>
     <t>5_136</t>
   </si>
   <si>
-    <t>5_138</t>
-  </si>
-  <si>
-    <t>5_147</t>
-  </si>
-  <si>
     <t>5_148</t>
   </si>
   <si>
-    <t>5_156</t>
-  </si>
-  <si>
     <t>5_157</t>
   </si>
   <si>
-    <t>5_158</t>
-  </si>
-  <si>
-    <t>5_163</t>
+    <t>5_159</t>
   </si>
   <si>
     <t>5_164</t>
   </si>
   <si>
-    <t>5_169</t>
-  </si>
-  <si>
-    <t>5_170</t>
+    <t>5_171</t>
   </si>
   <si>
     <t>5_175</t>
   </si>
   <si>
+    <t>5_178</t>
+  </si>
+  <si>
     <t>5_179</t>
   </si>
   <si>
@@ -2926,15 +2521,6 @@
     <t>5_181</t>
   </si>
   <si>
-    <t>5_182</t>
-  </si>
-  <si>
-    <t>5_183</t>
-  </si>
-  <si>
-    <t>5_186</t>
-  </si>
-  <si>
     <t>5_187</t>
   </si>
   <si>
@@ -2944,21 +2530,15 @@
     <t>5_190</t>
   </si>
   <si>
+    <t>5_192</t>
+  </si>
+  <si>
     <t>5_193</t>
   </si>
   <si>
-    <t>5_196</t>
-  </si>
-  <si>
-    <t>5_198</t>
-  </si>
-  <si>
     <t>5_200</t>
   </si>
   <si>
-    <t>5_207</t>
-  </si>
-  <si>
     <t>5_209</t>
   </si>
   <si>
@@ -2992,18 +2572,9 @@
     <t>5_232</t>
   </si>
   <si>
-    <t>5_235</t>
-  </si>
-  <si>
-    <t>5_236</t>
-  </si>
-  <si>
     <t>5_237</t>
   </si>
   <si>
-    <t>5_241</t>
-  </si>
-  <si>
     <t>5_243</t>
   </si>
   <si>
@@ -3011,6 +2582,15 @@
   </si>
   <si>
     <t>5_247</t>
+  </si>
+  <si>
+    <t>5_249</t>
+  </si>
+  <si>
+    <t>5_250</t>
+  </si>
+  <si>
+    <t>5_251</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +2948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10251,1126 +9831,6 @@
         <v>858</v>
       </c>
     </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="1">
-        <v>859</v>
-      </c>
-      <c r="B861" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="1">
-        <v>860</v>
-      </c>
-      <c r="B862" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="1">
-        <v>861</v>
-      </c>
-      <c r="B863" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="1">
-        <v>862</v>
-      </c>
-      <c r="B864" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="1">
-        <v>863</v>
-      </c>
-      <c r="B865" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="1">
-        <v>864</v>
-      </c>
-      <c r="B866" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="1">
-        <v>865</v>
-      </c>
-      <c r="B867" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="1">
-        <v>866</v>
-      </c>
-      <c r="B868" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="1">
-        <v>867</v>
-      </c>
-      <c r="B869" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="1">
-        <v>868</v>
-      </c>
-      <c r="B870" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="1">
-        <v>869</v>
-      </c>
-      <c r="B871" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="1">
-        <v>870</v>
-      </c>
-      <c r="B872" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="1">
-        <v>871</v>
-      </c>
-      <c r="B873" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="1">
-        <v>872</v>
-      </c>
-      <c r="B874" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="1">
-        <v>873</v>
-      </c>
-      <c r="B875" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2">
-      <c r="A876" s="1">
-        <v>874</v>
-      </c>
-      <c r="B876" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2">
-      <c r="A877" s="1">
-        <v>875</v>
-      </c>
-      <c r="B877" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2">
-      <c r="A878" s="1">
-        <v>876</v>
-      </c>
-      <c r="B878" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2">
-      <c r="A879" s="1">
-        <v>877</v>
-      </c>
-      <c r="B879" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2">
-      <c r="A880" s="1">
-        <v>878</v>
-      </c>
-      <c r="B880" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="A881" s="1">
-        <v>879</v>
-      </c>
-      <c r="B881" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2">
-      <c r="A882" s="1">
-        <v>880</v>
-      </c>
-      <c r="B882" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2">
-      <c r="A883" s="1">
-        <v>881</v>
-      </c>
-      <c r="B883" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="1">
-        <v>882</v>
-      </c>
-      <c r="B884" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2">
-      <c r="A885" s="1">
-        <v>883</v>
-      </c>
-      <c r="B885" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2">
-      <c r="A886" s="1">
-        <v>884</v>
-      </c>
-      <c r="B886" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2">
-      <c r="A887" s="1">
-        <v>885</v>
-      </c>
-      <c r="B887" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="1">
-        <v>886</v>
-      </c>
-      <c r="B888" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2">
-      <c r="A889" s="1">
-        <v>887</v>
-      </c>
-      <c r="B889" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2">
-      <c r="A890" s="1">
-        <v>888</v>
-      </c>
-      <c r="B890" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="1">
-        <v>889</v>
-      </c>
-      <c r="B891" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2">
-      <c r="A892" s="1">
-        <v>890</v>
-      </c>
-      <c r="B892" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="A893" s="1">
-        <v>891</v>
-      </c>
-      <c r="B893" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="1">
-        <v>892</v>
-      </c>
-      <c r="B894" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="1">
-        <v>893</v>
-      </c>
-      <c r="B895" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2">
-      <c r="A896" s="1">
-        <v>894</v>
-      </c>
-      <c r="B896" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="1">
-        <v>895</v>
-      </c>
-      <c r="B897" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="A898" s="1">
-        <v>896</v>
-      </c>
-      <c r="B898" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="1">
-        <v>897</v>
-      </c>
-      <c r="B899" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="1">
-        <v>898</v>
-      </c>
-      <c r="B900" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="1">
-        <v>899</v>
-      </c>
-      <c r="B901" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="1">
-        <v>900</v>
-      </c>
-      <c r="B902" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="1">
-        <v>901</v>
-      </c>
-      <c r="B903" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="1">
-        <v>902</v>
-      </c>
-      <c r="B904" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="1">
-        <v>903</v>
-      </c>
-      <c r="B905" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="A906" s="1">
-        <v>904</v>
-      </c>
-      <c r="B906" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="1">
-        <v>905</v>
-      </c>
-      <c r="B907" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="A908" s="1">
-        <v>906</v>
-      </c>
-      <c r="B908" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2">
-      <c r="A909" s="1">
-        <v>907</v>
-      </c>
-      <c r="B909" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="1">
-        <v>908</v>
-      </c>
-      <c r="B910" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2">
-      <c r="A911" s="1">
-        <v>909</v>
-      </c>
-      <c r="B911" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2">
-      <c r="A912" s="1">
-        <v>910</v>
-      </c>
-      <c r="B912" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2">
-      <c r="A913" s="1">
-        <v>911</v>
-      </c>
-      <c r="B913" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="1">
-        <v>912</v>
-      </c>
-      <c r="B914" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="1">
-        <v>913</v>
-      </c>
-      <c r="B915" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="1">
-        <v>914</v>
-      </c>
-      <c r="B916" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2">
-      <c r="A917" s="1">
-        <v>915</v>
-      </c>
-      <c r="B917" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2">
-      <c r="A918" s="1">
-        <v>916</v>
-      </c>
-      <c r="B918" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2">
-      <c r="A919" s="1">
-        <v>917</v>
-      </c>
-      <c r="B919" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2">
-      <c r="A920" s="1">
-        <v>918</v>
-      </c>
-      <c r="B920" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="921" spans="1:2">
-      <c r="A921" s="1">
-        <v>919</v>
-      </c>
-      <c r="B921" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2">
-      <c r="A922" s="1">
-        <v>920</v>
-      </c>
-      <c r="B922" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2">
-      <c r="A923" s="1">
-        <v>921</v>
-      </c>
-      <c r="B923" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2">
-      <c r="A924" s="1">
-        <v>922</v>
-      </c>
-      <c r="B924" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2">
-      <c r="A925" s="1">
-        <v>923</v>
-      </c>
-      <c r="B925" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2">
-      <c r="A926" s="1">
-        <v>924</v>
-      </c>
-      <c r="B926" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2">
-      <c r="A927" s="1">
-        <v>925</v>
-      </c>
-      <c r="B927" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2">
-      <c r="A928" s="1">
-        <v>926</v>
-      </c>
-      <c r="B928" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2">
-      <c r="A929" s="1">
-        <v>927</v>
-      </c>
-      <c r="B929" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2">
-      <c r="A930" s="1">
-        <v>928</v>
-      </c>
-      <c r="B930" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="A931" s="1">
-        <v>929</v>
-      </c>
-      <c r="B931" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2">
-      <c r="A932" s="1">
-        <v>930</v>
-      </c>
-      <c r="B932" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="A933" s="1">
-        <v>931</v>
-      </c>
-      <c r="B933" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2">
-      <c r="A934" s="1">
-        <v>932</v>
-      </c>
-      <c r="B934" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="A935" s="1">
-        <v>933</v>
-      </c>
-      <c r="B935" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2">
-      <c r="A936" s="1">
-        <v>934</v>
-      </c>
-      <c r="B936" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2">
-      <c r="A937" s="1">
-        <v>935</v>
-      </c>
-      <c r="B937" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2">
-      <c r="A938" s="1">
-        <v>936</v>
-      </c>
-      <c r="B938" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2">
-      <c r="A939" s="1">
-        <v>937</v>
-      </c>
-      <c r="B939" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2">
-      <c r="A940" s="1">
-        <v>938</v>
-      </c>
-      <c r="B940" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="1">
-        <v>939</v>
-      </c>
-      <c r="B941" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="1">
-        <v>940</v>
-      </c>
-      <c r="B942" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="A943" s="1">
-        <v>941</v>
-      </c>
-      <c r="B943" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2">
-      <c r="A944" s="1">
-        <v>942</v>
-      </c>
-      <c r="B944" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2">
-      <c r="A945" s="1">
-        <v>943</v>
-      </c>
-      <c r="B945" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2">
-      <c r="A946" s="1">
-        <v>944</v>
-      </c>
-      <c r="B946" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2">
-      <c r="A947" s="1">
-        <v>945</v>
-      </c>
-      <c r="B947" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2">
-      <c r="A948" s="1">
-        <v>946</v>
-      </c>
-      <c r="B948" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2">
-      <c r="A949" s="1">
-        <v>947</v>
-      </c>
-      <c r="B949" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2">
-      <c r="A950" s="1">
-        <v>948</v>
-      </c>
-      <c r="B950" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2">
-      <c r="A951" s="1">
-        <v>949</v>
-      </c>
-      <c r="B951" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="1">
-        <v>950</v>
-      </c>
-      <c r="B952" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2">
-      <c r="A953" s="1">
-        <v>951</v>
-      </c>
-      <c r="B953" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="A954" s="1">
-        <v>952</v>
-      </c>
-      <c r="B954" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2">
-      <c r="A955" s="1">
-        <v>953</v>
-      </c>
-      <c r="B955" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2">
-      <c r="A956" s="1">
-        <v>954</v>
-      </c>
-      <c r="B956" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2">
-      <c r="A957" s="1">
-        <v>955</v>
-      </c>
-      <c r="B957" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2">
-      <c r="A958" s="1">
-        <v>956</v>
-      </c>
-      <c r="B958" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2">
-      <c r="A959" s="1">
-        <v>957</v>
-      </c>
-      <c r="B959" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="A960" s="1">
-        <v>958</v>
-      </c>
-      <c r="B960" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2">
-      <c r="A961" s="1">
-        <v>959</v>
-      </c>
-      <c r="B961" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="1">
-        <v>960</v>
-      </c>
-      <c r="B962" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2">
-      <c r="A963" s="1">
-        <v>961</v>
-      </c>
-      <c r="B963" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2">
-      <c r="A964" s="1">
-        <v>962</v>
-      </c>
-      <c r="B964" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2">
-      <c r="A965" s="1">
-        <v>963</v>
-      </c>
-      <c r="B965" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2">
-      <c r="A966" s="1">
-        <v>964</v>
-      </c>
-      <c r="B966" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2">
-      <c r="A967" s="1">
-        <v>965</v>
-      </c>
-      <c r="B967" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="A968" s="1">
-        <v>966</v>
-      </c>
-      <c r="B968" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2">
-      <c r="A969" s="1">
-        <v>967</v>
-      </c>
-      <c r="B969" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2">
-      <c r="A970" s="1">
-        <v>968</v>
-      </c>
-      <c r="B970" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2">
-      <c r="A971" s="1">
-        <v>969</v>
-      </c>
-      <c r="B971" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2">
-      <c r="A972" s="1">
-        <v>970</v>
-      </c>
-      <c r="B972" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2">
-      <c r="A973" s="1">
-        <v>971</v>
-      </c>
-      <c r="B973" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2">
-      <c r="A974" s="1">
-        <v>972</v>
-      </c>
-      <c r="B974" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="A975" s="1">
-        <v>973</v>
-      </c>
-      <c r="B975" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2">
-      <c r="A976" s="1">
-        <v>974</v>
-      </c>
-      <c r="B976" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2">
-      <c r="A977" s="1">
-        <v>975</v>
-      </c>
-      <c r="B977" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2">
-      <c r="A978" s="1">
-        <v>976</v>
-      </c>
-      <c r="B978" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2">
-      <c r="A979" s="1">
-        <v>977</v>
-      </c>
-      <c r="B979" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2">
-      <c r="A980" s="1">
-        <v>978</v>
-      </c>
-      <c r="B980" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2">
-      <c r="A981" s="1">
-        <v>979</v>
-      </c>
-      <c r="B981" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2">
-      <c r="A982" s="1">
-        <v>980</v>
-      </c>
-      <c r="B982" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2">
-      <c r="A983" s="1">
-        <v>981</v>
-      </c>
-      <c r="B983" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2">
-      <c r="A984" s="1">
-        <v>982</v>
-      </c>
-      <c r="B984" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2">
-      <c r="A985" s="1">
-        <v>983</v>
-      </c>
-      <c r="B985" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2">
-      <c r="A986" s="1">
-        <v>984</v>
-      </c>
-      <c r="B986" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="1">
-        <v>985</v>
-      </c>
-      <c r="B987" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2">
-      <c r="A988" s="1">
-        <v>986</v>
-      </c>
-      <c r="B988" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2">
-      <c r="A989" s="1">
-        <v>987</v>
-      </c>
-      <c r="B989" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2">
-      <c r="A990" s="1">
-        <v>988</v>
-      </c>
-      <c r="B990" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2">
-      <c r="A991" s="1">
-        <v>989</v>
-      </c>
-      <c r="B991" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2">
-      <c r="A992" s="1">
-        <v>990</v>
-      </c>
-      <c r="B992" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2">
-      <c r="A993" s="1">
-        <v>991</v>
-      </c>
-      <c r="B993" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="1">
-        <v>992</v>
-      </c>
-      <c r="B994" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2">
-      <c r="A995" s="1">
-        <v>993</v>
-      </c>
-      <c r="B995" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2">
-      <c r="A996" s="1">
-        <v>994</v>
-      </c>
-      <c r="B996" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="997" spans="1:2">
-      <c r="A997" s="1">
-        <v>995</v>
-      </c>
-      <c r="B997" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2">
-      <c r="A998" s="1">
-        <v>996</v>
-      </c>
-      <c r="B998" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2">
-      <c r="A999" s="1">
-        <v>997</v>
-      </c>
-      <c r="B999" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2">
-      <c r="A1000" s="1">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>998</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/Results/OK_configs.xlsx
+++ b/Code/Results/OK_configs.xlsx
@@ -14,33 +14,1659 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
+  <si>
+    <t>0_0</t>
+  </si>
+  <si>
+    <t>0_1</t>
+  </si>
+  <si>
+    <t>0_3</t>
+  </si>
+  <si>
+    <t>0_4</t>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>0_8</t>
+  </si>
+  <si>
+    <t>0_11</t>
+  </si>
+  <si>
+    <t>0_12</t>
+  </si>
+  <si>
+    <t>0_13</t>
+  </si>
+  <si>
+    <t>0_14</t>
+  </si>
+  <si>
+    <t>0_16</t>
+  </si>
+  <si>
+    <t>0_18</t>
+  </si>
+  <si>
+    <t>0_20</t>
+  </si>
+  <si>
+    <t>0_23</t>
+  </si>
+  <si>
+    <t>0_24</t>
+  </si>
+  <si>
+    <t>0_25</t>
+  </si>
+  <si>
+    <t>0_27</t>
+  </si>
+  <si>
+    <t>0_31</t>
+  </si>
+  <si>
+    <t>0_36</t>
+  </si>
+  <si>
+    <t>0_37</t>
+  </si>
+  <si>
+    <t>0_38</t>
+  </si>
+  <si>
+    <t>0_39</t>
+  </si>
+  <si>
+    <t>0_40</t>
+  </si>
+  <si>
+    <t>0_42</t>
+  </si>
+  <si>
+    <t>0_44</t>
+  </si>
+  <si>
+    <t>0_45</t>
+  </si>
+  <si>
+    <t>0_46</t>
+  </si>
+  <si>
+    <t>0_48</t>
+  </si>
+  <si>
+    <t>0_49</t>
+  </si>
+  <si>
+    <t>0_51</t>
+  </si>
+  <si>
+    <t>0_53</t>
+  </si>
+  <si>
+    <t>0_54</t>
+  </si>
+  <si>
+    <t>0_63</t>
+  </si>
+  <si>
+    <t>1_0</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>1_9</t>
+  </si>
+  <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>1_11</t>
+  </si>
+  <si>
+    <t>1_12</t>
+  </si>
+  <si>
+    <t>1_13</t>
+  </si>
+  <si>
+    <t>1_16</t>
+  </si>
+  <si>
+    <t>1_18</t>
+  </si>
+  <si>
+    <t>1_20</t>
+  </si>
+  <si>
+    <t>1_22</t>
+  </si>
+  <si>
+    <t>1_23</t>
+  </si>
+  <si>
+    <t>1_24</t>
+  </si>
+  <si>
+    <t>1_25</t>
+  </si>
+  <si>
+    <t>1_27</t>
+  </si>
+  <si>
+    <t>1_29</t>
+  </si>
+  <si>
+    <t>1_31</t>
+  </si>
+  <si>
+    <t>1_33</t>
+  </si>
+  <si>
+    <t>1_36</t>
+  </si>
+  <si>
+    <t>1_37</t>
+  </si>
+  <si>
+    <t>1_38</t>
+  </si>
+  <si>
+    <t>1_39</t>
+  </si>
+  <si>
+    <t>1_40</t>
+  </si>
+  <si>
+    <t>1_41</t>
+  </si>
+  <si>
+    <t>1_42</t>
+  </si>
+  <si>
+    <t>1_44</t>
+  </si>
+  <si>
+    <t>1_46</t>
+  </si>
+  <si>
+    <t>1_48</t>
+  </si>
+  <si>
+    <t>1_49</t>
+  </si>
+  <si>
+    <t>1_50</t>
+  </si>
+  <si>
+    <t>1_51</t>
+  </si>
+  <si>
+    <t>1_53</t>
+  </si>
+  <si>
+    <t>1_54</t>
+  </si>
+  <si>
+    <t>1_57</t>
+  </si>
+  <si>
+    <t>1_59</t>
+  </si>
+  <si>
+    <t>1_63</t>
+  </si>
+  <si>
+    <t>2_0</t>
+  </si>
   <si>
     <t>2_1</t>
   </si>
   <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>2_8</t>
+  </si>
+  <si>
+    <t>2_9</t>
+  </si>
+  <si>
+    <t>2_10</t>
+  </si>
+  <si>
+    <t>2_11</t>
+  </si>
+  <si>
+    <t>2_12</t>
+  </si>
+  <si>
+    <t>2_13</t>
+  </si>
+  <si>
+    <t>2_14</t>
+  </si>
+  <si>
+    <t>2_15</t>
+  </si>
+  <si>
+    <t>2_16</t>
+  </si>
+  <si>
+    <t>2_17</t>
+  </si>
+  <si>
+    <t>2_18</t>
+  </si>
+  <si>
+    <t>2_20</t>
+  </si>
+  <si>
+    <t>2_21</t>
+  </si>
+  <si>
+    <t>2_22</t>
+  </si>
+  <si>
+    <t>2_23</t>
+  </si>
+  <si>
+    <t>2_24</t>
+  </si>
+  <si>
+    <t>2_25</t>
+  </si>
+  <si>
+    <t>2_26</t>
+  </si>
+  <si>
+    <t>2_27</t>
+  </si>
+  <si>
+    <t>2_28</t>
+  </si>
+  <si>
+    <t>2_29</t>
+  </si>
+  <si>
+    <t>2_30</t>
+  </si>
+  <si>
+    <t>2_31</t>
+  </si>
+  <si>
+    <t>2_32</t>
+  </si>
+  <si>
+    <t>2_33</t>
+  </si>
+  <si>
+    <t>2_34</t>
+  </si>
+  <si>
+    <t>2_35</t>
+  </si>
+  <si>
+    <t>2_36</t>
+  </si>
+  <si>
+    <t>2_37</t>
+  </si>
+  <si>
+    <t>2_38</t>
+  </si>
+  <si>
+    <t>2_39</t>
+  </si>
+  <si>
+    <t>2_40</t>
+  </si>
+  <si>
+    <t>2_41</t>
+  </si>
+  <si>
+    <t>2_42</t>
+  </si>
+  <si>
+    <t>2_43</t>
+  </si>
+  <si>
+    <t>2_44</t>
+  </si>
+  <si>
+    <t>2_45</t>
+  </si>
+  <si>
+    <t>2_46</t>
+  </si>
+  <si>
+    <t>2_47</t>
+  </si>
+  <si>
+    <t>2_48</t>
+  </si>
+  <si>
+    <t>2_49</t>
+  </si>
+  <si>
+    <t>2_50</t>
+  </si>
+  <si>
+    <t>2_51</t>
+  </si>
+  <si>
+    <t>2_52</t>
+  </si>
+  <si>
+    <t>2_53</t>
+  </si>
+  <si>
+    <t>2_54</t>
+  </si>
+  <si>
+    <t>2_55</t>
+  </si>
+  <si>
+    <t>2_56</t>
+  </si>
+  <si>
+    <t>2_57</t>
+  </si>
+  <si>
+    <t>2_59</t>
+  </si>
+  <si>
+    <t>2_60</t>
+  </si>
+  <si>
+    <t>2_61</t>
+  </si>
+  <si>
+    <t>2_62</t>
+  </si>
+  <si>
+    <t>2_63</t>
+  </si>
+  <si>
+    <t>3_0</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>3_10</t>
+  </si>
+  <si>
+    <t>3_11</t>
+  </si>
+  <si>
+    <t>3_12</t>
+  </si>
+  <si>
+    <t>3_13</t>
+  </si>
+  <si>
+    <t>3_14</t>
+  </si>
+  <si>
+    <t>3_15</t>
+  </si>
+  <si>
+    <t>3_16</t>
+  </si>
+  <si>
+    <t>3_17</t>
+  </si>
+  <si>
+    <t>3_18</t>
+  </si>
+  <si>
+    <t>3_19</t>
+  </si>
+  <si>
+    <t>3_20</t>
+  </si>
+  <si>
+    <t>3_21</t>
+  </si>
+  <si>
+    <t>3_22</t>
+  </si>
+  <si>
+    <t>3_23</t>
+  </si>
+  <si>
+    <t>3_24</t>
+  </si>
+  <si>
+    <t>3_25</t>
+  </si>
+  <si>
+    <t>3_26</t>
+  </si>
+  <si>
+    <t>3_27</t>
+  </si>
+  <si>
+    <t>3_28</t>
+  </si>
+  <si>
+    <t>3_29</t>
+  </si>
+  <si>
+    <t>3_30</t>
+  </si>
+  <si>
+    <t>3_31</t>
+  </si>
+  <si>
+    <t>3_32</t>
+  </si>
+  <si>
+    <t>3_33</t>
+  </si>
+  <si>
+    <t>3_34</t>
+  </si>
+  <si>
+    <t>3_35</t>
+  </si>
+  <si>
+    <t>3_36</t>
+  </si>
+  <si>
+    <t>3_37</t>
+  </si>
+  <si>
+    <t>3_38</t>
+  </si>
+  <si>
+    <t>3_39</t>
+  </si>
+  <si>
+    <t>3_40</t>
+  </si>
+  <si>
+    <t>3_41</t>
+  </si>
+  <si>
+    <t>3_42</t>
+  </si>
+  <si>
+    <t>3_43</t>
+  </si>
+  <si>
+    <t>3_44</t>
+  </si>
+  <si>
+    <t>3_45</t>
+  </si>
+  <si>
+    <t>3_46</t>
+  </si>
+  <si>
+    <t>3_47</t>
+  </si>
+  <si>
+    <t>3_48</t>
+  </si>
+  <si>
+    <t>3_49</t>
+  </si>
+  <si>
+    <t>3_50</t>
+  </si>
+  <si>
+    <t>3_51</t>
+  </si>
+  <si>
+    <t>3_52</t>
+  </si>
+  <si>
+    <t>3_53</t>
+  </si>
+  <si>
+    <t>3_54</t>
+  </si>
+  <si>
+    <t>3_55</t>
+  </si>
+  <si>
+    <t>3_56</t>
+  </si>
+  <si>
+    <t>3_57</t>
+  </si>
+  <si>
+    <t>3_58</t>
+  </si>
+  <si>
+    <t>3_59</t>
+  </si>
+  <si>
+    <t>3_60</t>
+  </si>
+  <si>
+    <t>3_61</t>
+  </si>
+  <si>
+    <t>3_62</t>
+  </si>
+  <si>
+    <t>3_63</t>
+  </si>
+  <si>
+    <t>4_0</t>
+  </si>
+  <si>
     <t>4_1</t>
   </si>
   <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>4_8</t>
+  </si>
+  <si>
+    <t>4_9</t>
+  </si>
+  <si>
+    <t>4_10</t>
+  </si>
+  <si>
+    <t>4_11</t>
+  </si>
+  <si>
+    <t>4_12</t>
+  </si>
+  <si>
+    <t>4_13</t>
+  </si>
+  <si>
+    <t>4_14</t>
+  </si>
+  <si>
+    <t>4_15</t>
+  </si>
+  <si>
+    <t>4_16</t>
+  </si>
+  <si>
+    <t>4_17</t>
+  </si>
+  <si>
+    <t>4_18</t>
+  </si>
+  <si>
+    <t>4_20</t>
+  </si>
+  <si>
+    <t>4_21</t>
+  </si>
+  <si>
+    <t>4_22</t>
+  </si>
+  <si>
+    <t>4_23</t>
+  </si>
+  <si>
+    <t>4_24</t>
+  </si>
+  <si>
+    <t>4_25</t>
+  </si>
+  <si>
+    <t>4_26</t>
+  </si>
+  <si>
+    <t>4_27</t>
+  </si>
+  <si>
+    <t>4_28</t>
+  </si>
+  <si>
+    <t>4_29</t>
+  </si>
+  <si>
+    <t>4_30</t>
+  </si>
+  <si>
+    <t>4_31</t>
+  </si>
+  <si>
+    <t>4_32</t>
+  </si>
+  <si>
+    <t>4_33</t>
+  </si>
+  <si>
+    <t>4_34</t>
+  </si>
+  <si>
+    <t>4_35</t>
+  </si>
+  <si>
+    <t>4_36</t>
+  </si>
+  <si>
+    <t>4_37</t>
+  </si>
+  <si>
+    <t>4_38</t>
+  </si>
+  <si>
+    <t>4_39</t>
+  </si>
+  <si>
+    <t>4_40</t>
+  </si>
+  <si>
+    <t>4_41</t>
+  </si>
+  <si>
+    <t>4_42</t>
+  </si>
+  <si>
+    <t>4_43</t>
+  </si>
+  <si>
+    <t>4_44</t>
+  </si>
+  <si>
+    <t>4_45</t>
+  </si>
+  <si>
+    <t>4_46</t>
+  </si>
+  <si>
+    <t>4_48</t>
+  </si>
+  <si>
+    <t>4_49</t>
+  </si>
+  <si>
+    <t>4_50</t>
+  </si>
+  <si>
+    <t>4_51</t>
+  </si>
+  <si>
+    <t>4_52</t>
+  </si>
+  <si>
+    <t>4_53</t>
+  </si>
+  <si>
+    <t>4_54</t>
+  </si>
+  <si>
+    <t>4_55</t>
+  </si>
+  <si>
+    <t>4_56</t>
+  </si>
+  <si>
+    <t>4_57</t>
+  </si>
+  <si>
+    <t>4_59</t>
+  </si>
+  <si>
+    <t>4_60</t>
+  </si>
+  <si>
+    <t>4_61</t>
+  </si>
+  <si>
+    <t>4_62</t>
+  </si>
+  <si>
+    <t>4_63</t>
+  </si>
+  <si>
+    <t>5_0</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>5_8</t>
+  </si>
+  <si>
+    <t>5_9</t>
+  </si>
+  <si>
+    <t>5_10</t>
+  </si>
+  <si>
+    <t>5_11</t>
+  </si>
+  <si>
+    <t>5_12</t>
+  </si>
+  <si>
+    <t>5_13</t>
+  </si>
+  <si>
+    <t>5_14</t>
+  </si>
+  <si>
+    <t>5_16</t>
+  </si>
+  <si>
+    <t>5_17</t>
+  </si>
+  <si>
+    <t>5_18</t>
+  </si>
+  <si>
+    <t>5_20</t>
+  </si>
+  <si>
+    <t>5_21</t>
+  </si>
+  <si>
+    <t>5_22</t>
+  </si>
+  <si>
+    <t>5_23</t>
+  </si>
+  <si>
+    <t>5_24</t>
+  </si>
+  <si>
+    <t>5_25</t>
+  </si>
+  <si>
+    <t>5_27</t>
+  </si>
+  <si>
+    <t>5_28</t>
+  </si>
+  <si>
+    <t>5_29</t>
+  </si>
+  <si>
+    <t>5_31</t>
+  </si>
+  <si>
+    <t>5_33</t>
+  </si>
+  <si>
+    <t>5_34</t>
+  </si>
+  <si>
+    <t>5_35</t>
+  </si>
+  <si>
+    <t>5_36</t>
+  </si>
+  <si>
+    <t>5_37</t>
+  </si>
+  <si>
+    <t>5_38</t>
+  </si>
+  <si>
+    <t>5_39</t>
+  </si>
+  <si>
+    <t>5_40</t>
+  </si>
+  <si>
+    <t>5_41</t>
+  </si>
+  <si>
+    <t>5_42</t>
+  </si>
+  <si>
+    <t>5_43</t>
+  </si>
+  <si>
+    <t>5_44</t>
+  </si>
+  <si>
+    <t>5_45</t>
+  </si>
+  <si>
+    <t>5_46</t>
+  </si>
+  <si>
+    <t>5_48</t>
+  </si>
+  <si>
+    <t>5_49</t>
+  </si>
+  <si>
+    <t>5_50</t>
+  </si>
+  <si>
+    <t>5_51</t>
+  </si>
+  <si>
+    <t>5_52</t>
+  </si>
+  <si>
+    <t>5_53</t>
+  </si>
+  <si>
+    <t>5_54</t>
+  </si>
+  <si>
+    <t>5_55</t>
+  </si>
+  <si>
+    <t>5_57</t>
+  </si>
+  <si>
+    <t>5_59</t>
+  </si>
+  <si>
+    <t>5_61</t>
+  </si>
+  <si>
+    <t>5_62</t>
+  </si>
+  <si>
+    <t>5_63</t>
+  </si>
+  <si>
+    <t>6_0</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>6_5</t>
+  </si>
+  <si>
+    <t>6_6</t>
+  </si>
+  <si>
+    <t>6_7</t>
+  </si>
+  <si>
+    <t>6_8</t>
+  </si>
+  <si>
+    <t>6_9</t>
+  </si>
+  <si>
+    <t>6_10</t>
+  </si>
+  <si>
+    <t>6_11</t>
+  </si>
+  <si>
+    <t>6_12</t>
+  </si>
+  <si>
+    <t>6_13</t>
+  </si>
+  <si>
+    <t>6_14</t>
+  </si>
+  <si>
+    <t>6_15</t>
+  </si>
+  <si>
+    <t>6_16</t>
+  </si>
+  <si>
+    <t>6_17</t>
+  </si>
+  <si>
+    <t>6_18</t>
+  </si>
+  <si>
+    <t>6_20</t>
+  </si>
+  <si>
+    <t>6_21</t>
+  </si>
+  <si>
+    <t>6_22</t>
+  </si>
+  <si>
+    <t>6_23</t>
+  </si>
+  <si>
+    <t>6_24</t>
+  </si>
+  <si>
+    <t>6_25</t>
+  </si>
+  <si>
+    <t>6_26</t>
+  </si>
+  <si>
+    <t>6_27</t>
+  </si>
+  <si>
+    <t>6_28</t>
+  </si>
+  <si>
+    <t>6_29</t>
+  </si>
+  <si>
+    <t>6_30</t>
+  </si>
+  <si>
+    <t>6_31</t>
+  </si>
+  <si>
+    <t>6_32</t>
+  </si>
+  <si>
+    <t>6_33</t>
+  </si>
+  <si>
+    <t>6_34</t>
+  </si>
+  <si>
+    <t>6_35</t>
+  </si>
+  <si>
+    <t>6_36</t>
+  </si>
+  <si>
+    <t>6_37</t>
+  </si>
+  <si>
+    <t>6_38</t>
+  </si>
+  <si>
+    <t>6_39</t>
+  </si>
+  <si>
+    <t>6_40</t>
+  </si>
+  <si>
+    <t>6_41</t>
+  </si>
+  <si>
+    <t>6_42</t>
+  </si>
+  <si>
+    <t>6_43</t>
+  </si>
+  <si>
+    <t>6_44</t>
+  </si>
+  <si>
+    <t>6_45</t>
+  </si>
+  <si>
+    <t>6_46</t>
+  </si>
+  <si>
+    <t>6_47</t>
+  </si>
+  <si>
+    <t>6_48</t>
+  </si>
+  <si>
+    <t>6_49</t>
+  </si>
+  <si>
+    <t>6_50</t>
+  </si>
+  <si>
+    <t>6_51</t>
+  </si>
+  <si>
+    <t>6_52</t>
+  </si>
+  <si>
+    <t>6_53</t>
+  </si>
+  <si>
+    <t>6_54</t>
+  </si>
+  <si>
+    <t>6_55</t>
+  </si>
+  <si>
+    <t>6_56</t>
+  </si>
+  <si>
+    <t>6_57</t>
+  </si>
+  <si>
+    <t>6_59</t>
+  </si>
+  <si>
+    <t>6_60</t>
+  </si>
+  <si>
+    <t>6_61</t>
+  </si>
+  <si>
+    <t>6_62</t>
+  </si>
+  <si>
+    <t>6_63</t>
+  </si>
+  <si>
+    <t>7_0</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>7_5</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>7_7</t>
+  </si>
+  <si>
+    <t>7_8</t>
+  </si>
+  <si>
+    <t>7_9</t>
+  </si>
+  <si>
+    <t>7_10</t>
+  </si>
+  <si>
+    <t>7_11</t>
+  </si>
+  <si>
+    <t>7_12</t>
+  </si>
+  <si>
+    <t>7_13</t>
+  </si>
+  <si>
+    <t>7_14</t>
+  </si>
+  <si>
+    <t>7_15</t>
+  </si>
+  <si>
+    <t>7_16</t>
+  </si>
+  <si>
+    <t>7_17</t>
+  </si>
+  <si>
+    <t>7_18</t>
+  </si>
+  <si>
+    <t>7_20</t>
+  </si>
+  <si>
+    <t>7_21</t>
+  </si>
+  <si>
+    <t>7_22</t>
+  </si>
+  <si>
+    <t>7_23</t>
+  </si>
+  <si>
+    <t>7_24</t>
+  </si>
+  <si>
+    <t>7_25</t>
+  </si>
+  <si>
+    <t>7_26</t>
+  </si>
+  <si>
+    <t>7_27</t>
+  </si>
+  <si>
+    <t>7_28</t>
+  </si>
+  <si>
+    <t>7_29</t>
+  </si>
+  <si>
+    <t>7_30</t>
+  </si>
+  <si>
+    <t>7_31</t>
+  </si>
+  <si>
+    <t>7_32</t>
+  </si>
+  <si>
+    <t>7_33</t>
+  </si>
+  <si>
+    <t>7_34</t>
+  </si>
+  <si>
+    <t>7_35</t>
+  </si>
+  <si>
+    <t>7_36</t>
+  </si>
+  <si>
+    <t>7_37</t>
+  </si>
+  <si>
+    <t>7_38</t>
+  </si>
+  <si>
+    <t>7_39</t>
+  </si>
+  <si>
+    <t>7_40</t>
+  </si>
+  <si>
+    <t>7_41</t>
+  </si>
+  <si>
+    <t>7_42</t>
+  </si>
+  <si>
+    <t>7_43</t>
+  </si>
+  <si>
+    <t>7_44</t>
+  </si>
+  <si>
+    <t>7_45</t>
+  </si>
+  <si>
+    <t>7_46</t>
+  </si>
+  <si>
+    <t>7_47</t>
+  </si>
+  <si>
+    <t>7_48</t>
+  </si>
+  <si>
+    <t>7_49</t>
+  </si>
+  <si>
+    <t>7_50</t>
+  </si>
+  <si>
+    <t>7_51</t>
+  </si>
+  <si>
+    <t>7_52</t>
+  </si>
+  <si>
+    <t>7_53</t>
+  </si>
+  <si>
+    <t>7_54</t>
+  </si>
+  <si>
+    <t>7_55</t>
+  </si>
+  <si>
+    <t>7_56</t>
+  </si>
+  <si>
+    <t>7_57</t>
+  </si>
+  <si>
+    <t>7_59</t>
+  </si>
+  <si>
+    <t>7_60</t>
+  </si>
+  <si>
+    <t>7_61</t>
+  </si>
+  <si>
+    <t>7_62</t>
+  </si>
+  <si>
+    <t>7_63</t>
+  </si>
+  <si>
+    <t>8_0</t>
+  </si>
+  <si>
     <t>8_1</t>
   </si>
   <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>8_5</t>
+  </si>
+  <si>
+    <t>8_8</t>
+  </si>
+  <si>
+    <t>8_9</t>
+  </si>
+  <si>
+    <t>8_10</t>
+  </si>
+  <si>
+    <t>8_11</t>
+  </si>
+  <si>
+    <t>8_12</t>
+  </si>
+  <si>
+    <t>8_13</t>
+  </si>
+  <si>
+    <t>8_14</t>
+  </si>
+  <si>
+    <t>8_16</t>
+  </si>
+  <si>
+    <t>8_17</t>
+  </si>
+  <si>
+    <t>8_18</t>
+  </si>
+  <si>
+    <t>8_20</t>
+  </si>
+  <si>
+    <t>8_21</t>
+  </si>
+  <si>
+    <t>8_22</t>
+  </si>
+  <si>
+    <t>8_23</t>
+  </si>
+  <si>
+    <t>8_24</t>
+  </si>
+  <si>
+    <t>8_25</t>
+  </si>
+  <si>
+    <t>8_27</t>
+  </si>
+  <si>
+    <t>8_28</t>
+  </si>
+  <si>
+    <t>8_29</t>
+  </si>
+  <si>
+    <t>8_31</t>
+  </si>
+  <si>
+    <t>8_33</t>
+  </si>
+  <si>
+    <t>8_34</t>
+  </si>
+  <si>
+    <t>8_35</t>
+  </si>
+  <si>
+    <t>8_36</t>
+  </si>
+  <si>
+    <t>8_37</t>
+  </si>
+  <si>
+    <t>8_38</t>
+  </si>
+  <si>
+    <t>8_39</t>
+  </si>
+  <si>
+    <t>8_40</t>
+  </si>
+  <si>
+    <t>8_41</t>
+  </si>
+  <si>
+    <t>8_42</t>
+  </si>
+  <si>
+    <t>8_43</t>
+  </si>
+  <si>
+    <t>8_44</t>
+  </si>
+  <si>
+    <t>8_45</t>
+  </si>
+  <si>
+    <t>8_46</t>
+  </si>
+  <si>
+    <t>8_48</t>
+  </si>
+  <si>
+    <t>8_49</t>
+  </si>
+  <si>
+    <t>8_50</t>
+  </si>
+  <si>
+    <t>8_51</t>
+  </si>
+  <si>
+    <t>8_52</t>
+  </si>
+  <si>
+    <t>8_53</t>
+  </si>
+  <si>
+    <t>8_54</t>
+  </si>
+  <si>
+    <t>8_55</t>
+  </si>
+  <si>
+    <t>8_57</t>
+  </si>
+  <si>
+    <t>8_59</t>
+  </si>
+  <si>
+    <t>8_61</t>
+  </si>
+  <si>
+    <t>8_62</t>
+  </si>
+  <si>
+    <t>8_63</t>
+  </si>
+  <si>
+    <t>9_0</t>
+  </si>
+  <si>
     <t>9_1</t>
   </si>
   <si>
-    <t>10_1</t>
-  </si>
-  <si>
-    <t>11_1</t>
-  </si>
-  <si>
-    <t>12_1</t>
-  </si>
-  <si>
-    <t>13_1</t>
-  </si>
-  <si>
-    <t>14_1</t>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>9_4</t>
+  </si>
+  <si>
+    <t>9_5</t>
+  </si>
+  <si>
+    <t>9_6</t>
+  </si>
+  <si>
+    <t>9_7</t>
+  </si>
+  <si>
+    <t>9_8</t>
+  </si>
+  <si>
+    <t>9_9</t>
+  </si>
+  <si>
+    <t>9_10</t>
+  </si>
+  <si>
+    <t>9_11</t>
+  </si>
+  <si>
+    <t>9_12</t>
+  </si>
+  <si>
+    <t>9_13</t>
+  </si>
+  <si>
+    <t>9_14</t>
+  </si>
+  <si>
+    <t>9_15</t>
+  </si>
+  <si>
+    <t>9_16</t>
+  </si>
+  <si>
+    <t>9_17</t>
+  </si>
+  <si>
+    <t>9_18</t>
+  </si>
+  <si>
+    <t>9_20</t>
+  </si>
+  <si>
+    <t>9_21</t>
+  </si>
+  <si>
+    <t>9_22</t>
+  </si>
+  <si>
+    <t>9_23</t>
+  </si>
+  <si>
+    <t>9_24</t>
+  </si>
+  <si>
+    <t>9_25</t>
+  </si>
+  <si>
+    <t>9_26</t>
+  </si>
+  <si>
+    <t>9_27</t>
+  </si>
+  <si>
+    <t>9_28</t>
+  </si>
+  <si>
+    <t>9_29</t>
+  </si>
+  <si>
+    <t>9_30</t>
+  </si>
+  <si>
+    <t>9_31</t>
+  </si>
+  <si>
+    <t>9_32</t>
+  </si>
+  <si>
+    <t>9_33</t>
+  </si>
+  <si>
+    <t>9_34</t>
+  </si>
+  <si>
+    <t>9_35</t>
+  </si>
+  <si>
+    <t>9_36</t>
+  </si>
+  <si>
+    <t>9_37</t>
+  </si>
+  <si>
+    <t>9_38</t>
+  </si>
+  <si>
+    <t>9_39</t>
+  </si>
+  <si>
+    <t>9_40</t>
+  </si>
+  <si>
+    <t>9_41</t>
+  </si>
+  <si>
+    <t>9_42</t>
+  </si>
+  <si>
+    <t>9_43</t>
+  </si>
+  <si>
+    <t>9_44</t>
+  </si>
+  <si>
+    <t>9_45</t>
+  </si>
+  <si>
+    <t>9_46</t>
+  </si>
+  <si>
+    <t>9_47</t>
+  </si>
+  <si>
+    <t>9_48</t>
+  </si>
+  <si>
+    <t>9_49</t>
+  </si>
+  <si>
+    <t>9_50</t>
+  </si>
+  <si>
+    <t>9_51</t>
+  </si>
+  <si>
+    <t>9_52</t>
+  </si>
+  <si>
+    <t>9_53</t>
+  </si>
+  <si>
+    <t>9_54</t>
+  </si>
+  <si>
+    <t>9_55</t>
+  </si>
+  <si>
+    <t>9_56</t>
+  </si>
+  <si>
+    <t>9_57</t>
+  </si>
+  <si>
+    <t>9_59</t>
+  </si>
+  <si>
+    <t>9_60</t>
+  </si>
+  <si>
+    <t>9_61</t>
+  </si>
+  <si>
+    <t>9_62</t>
+  </si>
+  <si>
+    <t>9_63</t>
   </si>
 </sst>
 </file>
@@ -398,7 +2024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,6 +2107,4342 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/Results/OK_configs.xlsx
+++ b/Code/Results/OK_configs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="709">
   <si>
     <t>0_0</t>
   </si>
@@ -70,6 +70,9 @@
     <t>0_31</t>
   </si>
   <si>
+    <t>0_33</t>
+  </si>
+  <si>
     <t>0_36</t>
   </si>
   <si>
@@ -112,6 +115,12 @@
     <t>0_54</t>
   </si>
   <si>
+    <t>0_57</t>
+  </si>
+  <si>
+    <t>0_61</t>
+  </si>
+  <si>
     <t>0_63</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>1_1</t>
   </si>
   <si>
+    <t>1_2</t>
+  </si>
+  <si>
     <t>1_3</t>
   </si>
   <si>
@@ -202,6 +214,9 @@
     <t>1_42</t>
   </si>
   <si>
+    <t>1_43</t>
+  </si>
+  <si>
     <t>1_44</t>
   </si>
   <si>
@@ -232,6 +247,9 @@
     <t>1_59</t>
   </si>
   <si>
+    <t>1_62</t>
+  </si>
+  <si>
     <t>1_63</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
     <t>2_18</t>
   </si>
   <si>
+    <t>2_19</t>
+  </si>
+  <si>
     <t>2_20</t>
   </si>
   <si>
@@ -406,6 +427,9 @@
     <t>2_57</t>
   </si>
   <si>
+    <t>2_58</t>
+  </si>
+  <si>
     <t>2_59</t>
   </si>
   <si>
@@ -634,6 +658,9 @@
     <t>4_6</t>
   </si>
   <si>
+    <t>4_7</t>
+  </si>
+  <si>
     <t>4_8</t>
   </si>
   <si>
@@ -811,6 +838,9 @@
     <t>5_5</t>
   </si>
   <si>
+    <t>5_6</t>
+  </si>
+  <si>
     <t>5_8</t>
   </si>
   <si>
@@ -832,6 +862,9 @@
     <t>5_14</t>
   </si>
   <si>
+    <t>5_15</t>
+  </si>
+  <si>
     <t>5_16</t>
   </si>
   <si>
@@ -868,9 +901,15 @@
     <t>5_29</t>
   </si>
   <si>
+    <t>5_30</t>
+  </si>
+  <si>
     <t>5_31</t>
   </si>
   <si>
+    <t>5_32</t>
+  </si>
+  <si>
     <t>5_33</t>
   </si>
   <si>
@@ -937,12 +976,18 @@
     <t>5_55</t>
   </si>
   <si>
+    <t>5_56</t>
+  </si>
+  <si>
     <t>5_57</t>
   </si>
   <si>
     <t>5_59</t>
   </si>
   <si>
+    <t>5_60</t>
+  </si>
+  <si>
     <t>5_61</t>
   </si>
   <si>
@@ -1009,6 +1054,9 @@
     <t>6_18</t>
   </si>
   <si>
+    <t>6_19</t>
+  </si>
+  <si>
     <t>6_20</t>
   </si>
   <si>
@@ -1123,6 +1171,9 @@
     <t>6_57</t>
   </si>
   <si>
+    <t>6_58</t>
+  </si>
+  <si>
     <t>6_59</t>
   </si>
   <si>
@@ -1195,6 +1246,9 @@
     <t>7_18</t>
   </si>
   <si>
+    <t>7_19</t>
+  </si>
+  <si>
     <t>7_20</t>
   </si>
   <si>
@@ -1309,6 +1363,9 @@
     <t>7_57</t>
   </si>
   <si>
+    <t>7_58</t>
+  </si>
+  <si>
     <t>7_59</t>
   </si>
   <si>
@@ -1342,6 +1399,12 @@
     <t>8_5</t>
   </si>
   <si>
+    <t>8_6</t>
+  </si>
+  <si>
+    <t>8_7</t>
+  </si>
+  <si>
     <t>8_8</t>
   </si>
   <si>
@@ -1363,6 +1426,9 @@
     <t>8_14</t>
   </si>
   <si>
+    <t>8_15</t>
+  </si>
+  <si>
     <t>8_16</t>
   </si>
   <si>
@@ -1390,6 +1456,9 @@
     <t>8_25</t>
   </si>
   <si>
+    <t>8_26</t>
+  </si>
+  <si>
     <t>8_27</t>
   </si>
   <si>
@@ -1399,9 +1468,15 @@
     <t>8_29</t>
   </si>
   <si>
+    <t>8_30</t>
+  </si>
+  <si>
     <t>8_31</t>
   </si>
   <si>
+    <t>8_32</t>
+  </si>
+  <si>
     <t>8_33</t>
   </si>
   <si>
@@ -1444,6 +1519,9 @@
     <t>8_46</t>
   </si>
   <si>
+    <t>8_47</t>
+  </si>
+  <si>
     <t>8_48</t>
   </si>
   <si>
@@ -1468,12 +1546,18 @@
     <t>8_55</t>
   </si>
   <si>
+    <t>8_56</t>
+  </si>
+  <si>
     <t>8_57</t>
   </si>
   <si>
     <t>8_59</t>
   </si>
   <si>
+    <t>8_60</t>
+  </si>
+  <si>
     <t>8_61</t>
   </si>
   <si>
@@ -1540,6 +1624,9 @@
     <t>9_18</t>
   </si>
   <si>
+    <t>9_19</t>
+  </si>
+  <si>
     <t>9_20</t>
   </si>
   <si>
@@ -1654,6 +1741,9 @@
     <t>9_57</t>
   </si>
   <si>
+    <t>9_58</t>
+  </si>
+  <si>
     <t>9_59</t>
   </si>
   <si>
@@ -1667,6 +1757,390 @@
   </si>
   <si>
     <t>9_63</t>
+  </si>
+  <si>
+    <t>10_0</t>
+  </si>
+  <si>
+    <t>10_1</t>
+  </si>
+  <si>
+    <t>10_2</t>
+  </si>
+  <si>
+    <t>10_3</t>
+  </si>
+  <si>
+    <t>10_4</t>
+  </si>
+  <si>
+    <t>10_5</t>
+  </si>
+  <si>
+    <t>10_6</t>
+  </si>
+  <si>
+    <t>10_7</t>
+  </si>
+  <si>
+    <t>10_8</t>
+  </si>
+  <si>
+    <t>10_9</t>
+  </si>
+  <si>
+    <t>10_10</t>
+  </si>
+  <si>
+    <t>10_11</t>
+  </si>
+  <si>
+    <t>10_12</t>
+  </si>
+  <si>
+    <t>10_13</t>
+  </si>
+  <si>
+    <t>10_14</t>
+  </si>
+  <si>
+    <t>10_15</t>
+  </si>
+  <si>
+    <t>10_16</t>
+  </si>
+  <si>
+    <t>10_17</t>
+  </si>
+  <si>
+    <t>10_18</t>
+  </si>
+  <si>
+    <t>10_19</t>
+  </si>
+  <si>
+    <t>10_20</t>
+  </si>
+  <si>
+    <t>10_21</t>
+  </si>
+  <si>
+    <t>10_22</t>
+  </si>
+  <si>
+    <t>10_23</t>
+  </si>
+  <si>
+    <t>10_24</t>
+  </si>
+  <si>
+    <t>10_25</t>
+  </si>
+  <si>
+    <t>10_26</t>
+  </si>
+  <si>
+    <t>10_27</t>
+  </si>
+  <si>
+    <t>10_28</t>
+  </si>
+  <si>
+    <t>10_29</t>
+  </si>
+  <si>
+    <t>10_30</t>
+  </si>
+  <si>
+    <t>10_31</t>
+  </si>
+  <si>
+    <t>10_32</t>
+  </si>
+  <si>
+    <t>10_33</t>
+  </si>
+  <si>
+    <t>10_34</t>
+  </si>
+  <si>
+    <t>10_35</t>
+  </si>
+  <si>
+    <t>10_36</t>
+  </si>
+  <si>
+    <t>10_37</t>
+  </si>
+  <si>
+    <t>10_38</t>
+  </si>
+  <si>
+    <t>10_39</t>
+  </si>
+  <si>
+    <t>10_40</t>
+  </si>
+  <si>
+    <t>10_41</t>
+  </si>
+  <si>
+    <t>10_42</t>
+  </si>
+  <si>
+    <t>10_43</t>
+  </si>
+  <si>
+    <t>10_44</t>
+  </si>
+  <si>
+    <t>10_45</t>
+  </si>
+  <si>
+    <t>10_46</t>
+  </si>
+  <si>
+    <t>10_47</t>
+  </si>
+  <si>
+    <t>10_48</t>
+  </si>
+  <si>
+    <t>10_49</t>
+  </si>
+  <si>
+    <t>10_50</t>
+  </si>
+  <si>
+    <t>10_51</t>
+  </si>
+  <si>
+    <t>10_52</t>
+  </si>
+  <si>
+    <t>10_53</t>
+  </si>
+  <si>
+    <t>10_54</t>
+  </si>
+  <si>
+    <t>10_55</t>
+  </si>
+  <si>
+    <t>10_56</t>
+  </si>
+  <si>
+    <t>10_57</t>
+  </si>
+  <si>
+    <t>10_58</t>
+  </si>
+  <si>
+    <t>10_59</t>
+  </si>
+  <si>
+    <t>10_60</t>
+  </si>
+  <si>
+    <t>10_61</t>
+  </si>
+  <si>
+    <t>10_62</t>
+  </si>
+  <si>
+    <t>10_63</t>
+  </si>
+  <si>
+    <t>11_0</t>
+  </si>
+  <si>
+    <t>11_1</t>
+  </si>
+  <si>
+    <t>11_2</t>
+  </si>
+  <si>
+    <t>11_3</t>
+  </si>
+  <si>
+    <t>11_4</t>
+  </si>
+  <si>
+    <t>11_5</t>
+  </si>
+  <si>
+    <t>11_6</t>
+  </si>
+  <si>
+    <t>11_7</t>
+  </si>
+  <si>
+    <t>11_8</t>
+  </si>
+  <si>
+    <t>11_9</t>
+  </si>
+  <si>
+    <t>11_10</t>
+  </si>
+  <si>
+    <t>11_11</t>
+  </si>
+  <si>
+    <t>11_12</t>
+  </si>
+  <si>
+    <t>11_13</t>
+  </si>
+  <si>
+    <t>11_14</t>
+  </si>
+  <si>
+    <t>11_15</t>
+  </si>
+  <si>
+    <t>11_16</t>
+  </si>
+  <si>
+    <t>11_17</t>
+  </si>
+  <si>
+    <t>11_18</t>
+  </si>
+  <si>
+    <t>11_19</t>
+  </si>
+  <si>
+    <t>11_20</t>
+  </si>
+  <si>
+    <t>11_21</t>
+  </si>
+  <si>
+    <t>11_22</t>
+  </si>
+  <si>
+    <t>11_23</t>
+  </si>
+  <si>
+    <t>11_24</t>
+  </si>
+  <si>
+    <t>11_25</t>
+  </si>
+  <si>
+    <t>11_26</t>
+  </si>
+  <si>
+    <t>11_27</t>
+  </si>
+  <si>
+    <t>11_28</t>
+  </si>
+  <si>
+    <t>11_29</t>
+  </si>
+  <si>
+    <t>11_30</t>
+  </si>
+  <si>
+    <t>11_31</t>
+  </si>
+  <si>
+    <t>11_32</t>
+  </si>
+  <si>
+    <t>11_33</t>
+  </si>
+  <si>
+    <t>11_34</t>
+  </si>
+  <si>
+    <t>11_35</t>
+  </si>
+  <si>
+    <t>11_36</t>
+  </si>
+  <si>
+    <t>11_37</t>
+  </si>
+  <si>
+    <t>11_38</t>
+  </si>
+  <si>
+    <t>11_39</t>
+  </si>
+  <si>
+    <t>11_40</t>
+  </si>
+  <si>
+    <t>11_41</t>
+  </si>
+  <si>
+    <t>11_42</t>
+  </si>
+  <si>
+    <t>11_43</t>
+  </si>
+  <si>
+    <t>11_44</t>
+  </si>
+  <si>
+    <t>11_45</t>
+  </si>
+  <si>
+    <t>11_46</t>
+  </si>
+  <si>
+    <t>11_47</t>
+  </si>
+  <si>
+    <t>11_48</t>
+  </si>
+  <si>
+    <t>11_49</t>
+  </si>
+  <si>
+    <t>11_50</t>
+  </si>
+  <si>
+    <t>11_51</t>
+  </si>
+  <si>
+    <t>11_52</t>
+  </si>
+  <si>
+    <t>11_53</t>
+  </si>
+  <si>
+    <t>11_54</t>
+  </si>
+  <si>
+    <t>11_55</t>
+  </si>
+  <si>
+    <t>11_56</t>
+  </si>
+  <si>
+    <t>11_57</t>
+  </si>
+  <si>
+    <t>11_58</t>
+  </si>
+  <si>
+    <t>11_59</t>
+  </si>
+  <si>
+    <t>11_60</t>
+  </si>
+  <si>
+    <t>11_61</t>
+  </si>
+  <si>
+    <t>11_62</t>
+  </si>
+  <si>
+    <t>11_63</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B552"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6443,6 +6917,1270 @@
         <v>550</v>
       </c>
     </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
